--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce4a5a5e5f055f94/Documenti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{716A3AD3-A061-4904-A240-89EB80D0AAFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="8_{716A3AD3-A061-4904-A240-89EB80D0AAFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D2ACBB71-8B7E-4A16-A041-8B39689458E8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
   <si>
     <t>Concetto</t>
   </si>
@@ -82,13 +82,154 @@
   </si>
   <si>
     <t>Attestato</t>
+  </si>
+  <si>
+    <t>Operazione</t>
+  </si>
+  <si>
+    <t>Frequenza</t>
+  </si>
+  <si>
+    <t>Op.1</t>
+  </si>
+  <si>
+    <t>Op.2</t>
+  </si>
+  <si>
+    <t>Op.3</t>
+  </si>
+  <si>
+    <t>Op.4</t>
+  </si>
+  <si>
+    <t>Op.5</t>
+  </si>
+  <si>
+    <t>Op.6</t>
+  </si>
+  <si>
+    <t>Op.7</t>
+  </si>
+  <si>
+    <t>Op.8</t>
+  </si>
+  <si>
+    <t>Op.9</t>
+  </si>
+  <si>
+    <t>Op.10</t>
+  </si>
+  <si>
+    <t>Op.11</t>
+  </si>
+  <si>
+    <t>Op.12</t>
+  </si>
+  <si>
+    <t>Op.13</t>
+  </si>
+  <si>
+    <t>Op.14</t>
+  </si>
+  <si>
+    <t>Op.15</t>
+  </si>
+  <si>
+    <t>Op.16</t>
+  </si>
+  <si>
+    <t>Op.17</t>
+  </si>
+  <si>
+    <t>Op.18</t>
+  </si>
+  <si>
+    <t>Op.19</t>
+  </si>
+  <si>
+    <t>Op.20</t>
+  </si>
+  <si>
+    <t>Op.21</t>
+  </si>
+  <si>
+    <t>Op.22</t>
+  </si>
+  <si>
+    <t>Op.23</t>
+  </si>
+  <si>
+    <t>Op.24</t>
+  </si>
+  <si>
+    <t>Op.25</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Numero problemi presi in incarico dagli operatori</t>
+  </si>
+  <si>
+    <t>Numero clienti che hanno acquistato un software</t>
+  </si>
+  <si>
+    <t>Numero clienti che seguono un corso formativo</t>
+  </si>
+  <si>
+    <t>Dato ridondante</t>
+  </si>
+  <si>
+    <t>Operazioni</t>
+  </si>
+  <si>
+    <t>Con ridondanza</t>
+  </si>
+  <si>
+    <t>Costrutto</t>
+  </si>
+  <si>
+    <t>Accessi</t>
+  </si>
+  <si>
+    <t>Senza ridondanza</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>numero accessi=</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Memoria usata =</t>
+  </si>
+  <si>
+    <t>Byte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +237,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -172,27 +325,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -507,199 +746,1168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05CB62-BCAA-48B8-A379-27A9D8698B8D}">
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:AA48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="G2" s="11"/>
+      <c r="I2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4">
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
         <v>600</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="G3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="3">
+        <v>50</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4">
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="G4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="3">
+        <v>5</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4">
+      <c r="E5" s="2"/>
+      <c r="F5" s="1">
         <v>300</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="G5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4">
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
         <v>1200</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="G6" s="2"/>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
         <v>40</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="G7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="3">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
         <v>900</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="G8" s="2"/>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="3">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
         <v>1800</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="G9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="3">
+        <v>75</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4">
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
         <v>900</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="G10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4">
+      <c r="E11" s="2"/>
+      <c r="F11" s="1">
         <v>350</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="G11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="3">
+        <v>60</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4">
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
         <v>250</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="G12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="3">
+        <v>5</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4">
+      <c r="E13" s="2"/>
+      <c r="F13" s="1">
         <v>1200</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="G13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="3">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4">
+      <c r="E14" s="2"/>
+      <c r="F14" s="1">
         <v>2400</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="3">
+        <v>10</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="3">
+        <v>10</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="3">
+        <v>30</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="3">
+        <v>5</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="3">
+        <v>10</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="3">
+        <v>20</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="3">
+        <v>10</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="3">
+        <v>70</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="I23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="3">
+        <v>20</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="I24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="3">
+        <v>40</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="I25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="3">
+        <v>15</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="I26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="17">
+        <v>10</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="I27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="18">
+        <v>10</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="H32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="S32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="I33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="W33" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="I34" s="7" t="str">
+        <f>B4</f>
+        <v>Operatore</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="8" t="str">
+        <f>D4</f>
+        <v>Entità</v>
+      </c>
+      <c r="L34" s="8">
+        <f>F4</f>
+        <v>100</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S34" s="7" t="str">
+        <f>B4</f>
+        <v>Operatore</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="8" t="str">
+        <f>D4</f>
+        <v>Entità</v>
+      </c>
+      <c r="V34" s="8">
+        <f>F4</f>
+        <v>100</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="S35" s="7" t="str">
+        <f>B10</f>
+        <v>Problema</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="8" t="str">
+        <f>D10</f>
+        <v>Entità</v>
+      </c>
+      <c r="V35" s="8">
+        <f>F10</f>
+        <v>900</v>
+      </c>
+      <c r="W35" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="G37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="13">
+        <f>L34</f>
+        <v>100</v>
+      </c>
+      <c r="J37" s="13" t="str">
+        <f>M34</f>
+        <v>L</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L37" s="13">
+        <f>M23</f>
+        <v>20</v>
+      </c>
+      <c r="M37" s="13" t="str">
+        <f>N23</f>
+        <v>mm</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O37" s="13">
+        <f>I37*L37*12</f>
+        <v>24000</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S37" s="7"/>
+      <c r="T37" s="13">
+        <f>V35+V34</f>
+        <v>1000</v>
+      </c>
+      <c r="U37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="V37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W37" s="13">
+        <f>M23</f>
+        <v>20</v>
+      </c>
+      <c r="X37" s="13" t="str">
+        <f>N23</f>
+        <v>mm</v>
+      </c>
+      <c r="Y37" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z37" s="13">
+        <f>T37*W37*12</f>
+        <v>240000</v>
+      </c>
+      <c r="AA37" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="G38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="13">
+        <f>4*F4</f>
+        <v>400</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="S38" s="7"/>
+      <c r="T38" s="13">
+        <v>0</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="H40" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="S40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="I41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41" s="7"/>
+      <c r="U41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="I42" s="7" t="str">
+        <f>B5</f>
+        <v>Software</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="8" t="str">
+        <f>D5</f>
+        <v>Entità</v>
+      </c>
+      <c r="L42" s="8">
+        <v>1</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S42" s="7" t="str">
+        <f>B5</f>
+        <v>Software</v>
+      </c>
+      <c r="T42" s="7"/>
+      <c r="U42" s="8" t="str">
+        <f>D5</f>
+        <v>Entità</v>
+      </c>
+      <c r="V42" s="8">
+        <v>1</v>
+      </c>
+      <c r="W42" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="S43" s="7" t="str">
+        <f>B14</f>
+        <v>Acquista</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="8" t="str">
+        <f>D14</f>
+        <v>Relazione</v>
+      </c>
+      <c r="V43" s="8">
+        <f>F14/F5</f>
+        <v>8</v>
+      </c>
+      <c r="W43" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="G45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="13">
+        <f>L42</f>
+        <v>1</v>
+      </c>
+      <c r="J45" s="13" t="str">
+        <f>M42</f>
+        <v>L</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" s="13">
+        <f>M24</f>
+        <v>40</v>
+      </c>
+      <c r="M45" s="13" t="str">
+        <f>N24</f>
+        <v>mm</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O45" s="13">
+        <f>I45*L45*12</f>
+        <v>480</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S45" s="7"/>
+      <c r="T45" s="13">
+        <f>V43+V42</f>
+        <v>9</v>
+      </c>
+      <c r="U45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W45" s="13">
+        <f>M24</f>
+        <v>40</v>
+      </c>
+      <c r="X45" s="13" t="str">
+        <f>N24</f>
+        <v>mm</v>
+      </c>
+      <c r="Y45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z45" s="13">
+        <f>T45*W45*12</f>
+        <v>4320</v>
+      </c>
+      <c r="AA45" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="G46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="13">
+        <f>4*F5</f>
+        <v>1200</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="S46" s="7"/>
+      <c r="T46" s="13">
+        <v>0</v>
+      </c>
+      <c r="U46" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B48" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="121">
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="S40:W40"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -709,37 +1917,8 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735E244A-49D7-4BA3-8BCF-F9AE66363EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF148F67-C9DE-43EE-9D27-BC9FBC565916}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9912" yWindow="1344" windowWidth="11352" windowHeight="8772" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
   <si>
     <t>Concetto</t>
   </si>
@@ -171,15 +171,9 @@
     <t>B</t>
   </si>
   <si>
-    <t>Numero problemi presi in incarico dagli operatori</t>
-  </si>
-  <si>
     <t>Numero clienti che hanno acquistato un software</t>
   </si>
   <si>
-    <t>Numero clienti che seguono un corso formativo</t>
-  </si>
-  <si>
     <t>Dato ridondante</t>
   </si>
   <si>
@@ -192,18 +186,12 @@
     <t>Costrutto</t>
   </si>
   <si>
-    <t>Accessi</t>
-  </si>
-  <si>
     <t>Senza ridondanza</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>numero accessi=</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -219,23 +207,41 @@
     <t>=</t>
   </si>
   <si>
-    <t>Memoria usata =</t>
-  </si>
-  <si>
-    <t>Byte</t>
-  </si>
-  <si>
     <t>Op.26</t>
   </si>
   <si>
     <t>Op.27</t>
+  </si>
+  <si>
+    <t>Accesso</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>#Accessi=</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>#Accessi totali=</t>
+  </si>
+  <si>
+    <t>Memoria in byte=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,14 +251,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,9 +388,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -404,37 +404,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,18 +442,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -774,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05CB62-BCAA-48B8-A379-27A9D8698B8D}">
-  <dimension ref="B1:AA49"/>
+  <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:J29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,665 +786,631 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="I2" s="18" t="s">
+      <c r="G2" s="17"/>
+      <c r="I2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="19"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15">
+      <c r="E3" s="15"/>
+      <c r="F3" s="14">
         <v>600</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="15"/>
+      <c r="I3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="1">
+      <c r="J3" s="15"/>
+      <c r="K3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="23">
         <v>50</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15">
+      <c r="E4" s="15"/>
+      <c r="F4" s="14">
         <v>100</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="I4" s="13" t="s">
+      <c r="G4" s="15"/>
+      <c r="I4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="17"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="13"/>
       <c r="M4" s="1">
         <v>50</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15">
+      <c r="E5" s="15"/>
+      <c r="F5" s="14">
         <v>300</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="I5" s="15" t="s">
+      <c r="G5" s="15"/>
+      <c r="I5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="17"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="13"/>
       <c r="M5" s="1">
         <v>5</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15">
+      <c r="E6" s="15"/>
+      <c r="F6" s="14">
         <v>1200</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="I6" s="13" t="s">
+      <c r="G6" s="15"/>
+      <c r="I6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="17"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="13"/>
       <c r="M6" s="1">
         <v>10</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14">
         <v>40</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="I7" s="15" t="s">
+      <c r="G7" s="15"/>
+      <c r="I7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="13"/>
       <c r="M7" s="1">
         <v>1000</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15">
+      <c r="E8" s="15"/>
+      <c r="F8" s="14">
         <v>900</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="I8" s="13" t="s">
+      <c r="G8" s="15"/>
+      <c r="I8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="13"/>
       <c r="M8" s="1">
         <v>10</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15">
+      <c r="E9" s="15"/>
+      <c r="F9" s="14">
         <v>1800</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="I9" s="15" t="s">
+      <c r="G9" s="15"/>
+      <c r="I9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="13"/>
       <c r="M9" s="1">
         <v>20</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15">
+      <c r="E10" s="15"/>
+      <c r="F10" s="14">
         <v>900</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="I10" s="13" t="s">
+      <c r="G10" s="15"/>
+      <c r="I10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="17"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="13"/>
       <c r="M10" s="1">
         <v>100</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15">
+      <c r="E11" s="15"/>
+      <c r="F11" s="14">
         <v>350</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="I11" s="15" t="s">
+      <c r="G11" s="15"/>
+      <c r="I11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="17"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="13"/>
       <c r="M11" s="1">
         <v>100</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15">
+      <c r="E12" s="15"/>
+      <c r="F12" s="14">
         <v>250</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="I12" s="13" t="s">
+      <c r="G12" s="15"/>
+      <c r="I12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="17"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="13"/>
       <c r="M12" s="1">
         <v>20</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15">
+      <c r="E13" s="15"/>
+      <c r="F13" s="14">
         <v>1200</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="I13" s="13" t="s">
+      <c r="G13" s="15"/>
+      <c r="I13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="9">
+      <c r="J13" s="12"/>
+      <c r="K13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="8">
         <v>10</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15">
+      <c r="E14" s="15"/>
+      <c r="F14" s="14">
         <v>2400</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="I14" s="13" t="s">
+      <c r="G14" s="15"/>
+      <c r="I14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="17"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="13"/>
       <c r="M14" s="10">
         <v>10</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>59</v>
+      <c r="N14" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="17" t="s">
+      <c r="J15" s="12"/>
+      <c r="K15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="1">
         <v>5</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="13" t="s">
+      <c r="B16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="17"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="13"/>
       <c r="M16" s="1">
         <v>10</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="13" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="17"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="13"/>
       <c r="M17" s="1">
         <v>10</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="G18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="17"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="13"/>
       <c r="M18" s="1">
         <v>120</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="17"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="13"/>
       <c r="M19" s="1">
         <v>20</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="G20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="17"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="13"/>
       <c r="M20" s="1">
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="17" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="17"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="1">
         <v>5</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="G22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="17"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="13"/>
       <c r="M22" s="1">
         <v>10</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="I23" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="17" t="s">
+      <c r="J23" s="12"/>
+      <c r="K23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="17"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="1">
         <v>20</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="I24" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="17" t="s">
+      <c r="J24" s="12"/>
+      <c r="K24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="17"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="1">
         <v>10</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="I25" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="17"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="13"/>
       <c r="M25" s="1">
         <v>70</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="I26" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="17" t="s">
+      <c r="J26" s="12"/>
+      <c r="K26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="1">
         <v>20</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="I27" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="17"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="13"/>
       <c r="M27" s="1">
         <v>50</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="I28" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="17"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="13"/>
       <c r="M28" s="1">
         <v>15</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="I29" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="17"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="K29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="13"/>
       <c r="M29" s="1">
         <v>40</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="I30" s="23"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H31" s="4"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1455,497 +1419,486 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="H32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N32" s="4"/>
-      <c r="S32" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="N33" s="4"/>
-      <c r="S33" s="12" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="H33" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="P33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H34" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="T33" s="12"/>
-      <c r="U33" s="5" t="s">
+      <c r="I34" s="19"/>
+      <c r="J34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U34" s="19"/>
+      <c r="V34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H35" s="19" t="str">
+        <f>B14</f>
+        <v>Acquista</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="9" t="str">
+        <f>D14</f>
+        <v>Relazione</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T35" s="19" t="str">
+        <f>H35</f>
+        <v>Acquista</v>
+      </c>
+      <c r="U35" s="19"/>
+      <c r="V35" s="9" t="str">
+        <f>J35</f>
+        <v>Relazione</v>
+      </c>
+      <c r="W35" s="9">
+        <f>K35</f>
+        <v>1</v>
+      </c>
+      <c r="X35" s="9" t="str">
+        <f>L35</f>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H36" s="19" t="str">
+        <f>B5</f>
+        <v>Software</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="9" t="str">
+        <f>D5</f>
+        <v>Entità</v>
+      </c>
+      <c r="K36" s="9">
+        <v>1</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="V33" s="5" t="s">
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H37" s="19" t="str">
+        <f>H36</f>
+        <v>Software</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="9" t="str">
+        <f>J36</f>
+        <v>Entità</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1</v>
+      </c>
+      <c r="L37" s="9" t="str">
+        <f>L36</f>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Q38" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S38" s="5">
+        <v>0</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V38" s="5">
+        <f>W35</f>
+        <v>1</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="W33" s="5" t="s">
+      <c r="Z38" s="5">
+        <f>N40</f>
+        <v>100</v>
+      </c>
+      <c r="AA38" s="5" t="str">
+        <f>O40</f>
+        <v>mm</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC38" s="5">
+        <f>(S38+2*V38)*Z38</f>
+        <v>200</v>
+      </c>
+      <c r="AD38" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="E40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="5">
+        <f>K36+K37</f>
+        <v>2</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="5">
+        <f>K35</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="S34" s="12" t="str">
-        <f>B4</f>
-        <v>Operatore</v>
-      </c>
-      <c r="T34" s="12"/>
-      <c r="U34" s="5" t="str">
-        <f>D4</f>
+      <c r="K40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N40" s="5">
+        <f>M11</f>
+        <v>100</v>
+      </c>
+      <c r="O40" s="5" t="str">
+        <f>N11</f>
+        <v>mm</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q40" s="5">
+        <f>(G40+2*J40)*N40</f>
+        <v>400</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H42" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="P42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T42" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H43" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="J43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U43" s="19"/>
+      <c r="V43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="X43" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H44" s="19" t="str">
+        <f>B5</f>
+        <v>Software</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="9" t="str">
+        <f>D5</f>
         <v>Entità</v>
       </c>
-      <c r="V34" s="5">
-        <f>F4</f>
-        <v>100</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="I35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="22"/>
-      <c r="S35" s="12" t="str">
-        <f>B10</f>
-        <v>Problema</v>
-      </c>
-      <c r="T35" s="12"/>
-      <c r="U35" s="5" t="str">
-        <f>D10</f>
+      <c r="K44" s="9">
+        <v>1</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T44" s="19" t="str">
+        <f>H44</f>
+        <v>Software</v>
+      </c>
+      <c r="U44" s="19"/>
+      <c r="V44" s="9" t="str">
+        <f>J44</f>
         <v>Entità</v>
       </c>
-      <c r="V35" s="5">
-        <f>F10</f>
-        <v>900</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="I36" s="12" t="s">
+      <c r="W44" s="9">
+        <f>K44</f>
+        <v>1</v>
+      </c>
+      <c r="X44" s="9" t="str">
+        <f>L44</f>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="T45" s="19" t="str">
+        <f>B14</f>
+        <v>Acquista</v>
+      </c>
+      <c r="U45" s="19"/>
+      <c r="V45" s="9" t="str">
+        <f>D14</f>
+        <v>Relazione</v>
+      </c>
+      <c r="W45" s="9">
+        <f>F14/F5</f>
+        <v>8</v>
+      </c>
+      <c r="X45" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="E47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="5">
+        <f>K44</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47" s="5">
         <v>0</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="5" t="s">
+      <c r="K47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M47" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="G37" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12" t="str">
-        <f>B4</f>
-        <v>Operatore</v>
-      </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="5" t="str">
-        <f>D4</f>
-        <v>Entità</v>
-      </c>
-      <c r="L37" s="5">
-        <f>F4</f>
-        <v>100</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O37" s="6">
-        <f>I40*L40*12</f>
-        <v>24000</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R37" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="S37" s="12"/>
-      <c r="T37" s="6">
-        <f>V35+V34</f>
-        <v>1000</v>
-      </c>
-      <c r="U37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="W37" s="6">
+      <c r="N47" s="5">
         <f>M26</f>
         <v>20</v>
       </c>
-      <c r="X37" s="6" t="str">
+      <c r="O47" s="5" t="str">
         <f>N26</f>
         <v>mm</v>
       </c>
-      <c r="Y37" s="6" t="s">
+      <c r="P47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q47" s="5">
+        <f>(G47+2*J47)*N47</f>
+        <v>20</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="Q49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S49" s="5">
+        <f>W44+W45</f>
+        <v>9</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V49" s="5">
+        <v>0</v>
+      </c>
+      <c r="W49" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Z37" s="6">
-        <f>T37*W37*12</f>
-        <v>240000</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="G38" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="R38" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="S38" s="12"/>
-      <c r="T38" s="6">
-        <v>0</v>
-      </c>
-      <c r="U38" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B40" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="H40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I40" s="6">
-        <f>L37</f>
-        <v>100</v>
-      </c>
-      <c r="J40" s="6" t="str">
-        <f>M37</f>
-        <v>L</v>
-      </c>
-      <c r="K40" s="6" t="s">
+      <c r="X49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z49" s="5">
+        <f>N47</f>
+        <v>20</v>
+      </c>
+      <c r="AA49" s="5" t="str">
+        <f>O47</f>
+        <v>mm</v>
+      </c>
+      <c r="AB49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L40" s="6">
-        <f>M26</f>
-        <v>20</v>
-      </c>
-      <c r="M40" s="6" t="str">
-        <f>N26</f>
-        <v>mm</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="S40" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="I41" s="6">
-        <f>4*F4</f>
-        <v>400</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="T41" s="12"/>
-      <c r="U41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="S42" s="12" t="str">
-        <f>B5</f>
-        <v>Software</v>
-      </c>
-      <c r="T42" s="12"/>
-      <c r="U42" s="5" t="str">
-        <f>D5</f>
-        <v>Entità</v>
-      </c>
-      <c r="V42" s="5">
-        <v>1</v>
-      </c>
-      <c r="W42" s="5" t="s">
+      <c r="AC49" s="5">
+        <f>(S49+2*V49)*Z49</f>
+        <v>180</v>
+      </c>
+      <c r="AD49" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="I43" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="22"/>
-      <c r="S43" s="12" t="str">
-        <f>B14</f>
-        <v>Acquista</v>
-      </c>
-      <c r="T43" s="12"/>
-      <c r="U43" s="5" t="str">
-        <f>D14</f>
-        <v>Relazione</v>
-      </c>
-      <c r="V43" s="5">
-        <f>F14/F5</f>
-        <v>8</v>
-      </c>
-      <c r="W43" s="5" t="s">
+    <row r="53" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E53" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="5">
+        <f>Q40+Q47</f>
+        <v>420</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="I44" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" s="12"/>
-      <c r="K44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="G45" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12" t="str">
-        <f>B5</f>
-        <v>Software</v>
-      </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="5" t="str">
-        <f>D5</f>
-        <v>Entità</v>
-      </c>
-      <c r="L45" s="5">
-        <v>1</v>
-      </c>
-      <c r="M45" s="5" t="s">
+      <c r="Q53" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R53" s="19"/>
+      <c r="S53" s="5">
+        <f>AC49+AC38</f>
+        <v>380</v>
+      </c>
+      <c r="T53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O45" s="6">
-        <f>I48*L48*12</f>
-        <v>600</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R45" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="S45" s="12"/>
-      <c r="T45" s="6">
-        <f>V43+V42</f>
-        <v>9</v>
-      </c>
-      <c r="U45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V45" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="W45" s="6">
-        <f>M27</f>
-        <v>50</v>
-      </c>
-      <c r="X45" s="6" t="str">
-        <f>N27</f>
-        <v>mm</v>
-      </c>
-      <c r="Y45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z45" s="6">
-        <f>T45*W45*12</f>
-        <v>5400</v>
-      </c>
-      <c r="AA45" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="G46" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="R46" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="S46" s="12"/>
-      <c r="T46" s="6">
-        <v>0</v>
-      </c>
-      <c r="U46" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B48" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="I48" s="6">
-        <f>L45</f>
-        <v>1</v>
-      </c>
-      <c r="J48" s="6" t="str">
-        <f>M45</f>
-        <v>L</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L48" s="6">
-        <f>M27</f>
-        <v>50</v>
-      </c>
-      <c r="M48" s="6" t="str">
-        <f>N27</f>
-        <v>mm</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I49" s="6">
+    </row>
+    <row r="54" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E54" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="5">
         <f>4*F5</f>
         <v>1200</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>63</v>
+      <c r="Q54" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="R54" s="19"/>
+      <c r="S54" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="125">
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B21:F21"/>
+  <mergeCells count="118">
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="T42:X42"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="I27:J27"/>
@@ -1964,33 +1917,87 @@
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="S40:W40"/>
-    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF148F67-C9DE-43EE-9D27-BC9FBC565916}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EEA2E4-6A95-471C-AE05-62C83F383C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -270,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -395,6 +397,19 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -412,19 +427,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -442,20 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -774,92 +791,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05CB62-BCAA-48B8-A379-27A9D8698B8D}">
   <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="22"/>
+      <c r="I2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14">
+      <c r="E3" s="20"/>
+      <c r="F3" s="19">
         <v>600</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="I3" s="14" t="s">
+      <c r="G3" s="20"/>
+      <c r="I3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="23">
+      <c r="J3" s="20"/>
+      <c r="K3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="10">
         <v>50</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14">
+      <c r="E4" s="20"/>
+      <c r="F4" s="19">
         <v>100</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="20"/>
+      <c r="I4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="13"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="17"/>
       <c r="M4" s="1">
         <v>50</v>
       </c>
@@ -867,27 +884,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14">
+      <c r="E5" s="20"/>
+      <c r="F5" s="19">
         <v>300</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="20"/>
+      <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="13"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="17"/>
       <c r="M5" s="1">
         <v>5</v>
       </c>
@@ -895,27 +912,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14">
+      <c r="E6" s="20"/>
+      <c r="F6" s="19">
         <v>1200</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="I6" s="11" t="s">
+      <c r="G6" s="20"/>
+      <c r="I6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="13"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="17"/>
       <c r="M6" s="1">
         <v>10</v>
       </c>
@@ -923,27 +940,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14">
+      <c r="E7" s="20"/>
+      <c r="F7" s="19">
         <v>40</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="I7" s="14" t="s">
+      <c r="G7" s="20"/>
+      <c r="I7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="13"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="17"/>
       <c r="M7" s="1">
         <v>1000</v>
       </c>
@@ -951,27 +968,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14">
+      <c r="E8" s="20"/>
+      <c r="F8" s="19">
         <v>900</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="I8" s="11" t="s">
+      <c r="G8" s="20"/>
+      <c r="I8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="13"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="17"/>
       <c r="M8" s="1">
         <v>10</v>
       </c>
@@ -979,27 +996,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14">
+      <c r="E9" s="20"/>
+      <c r="F9" s="19">
         <v>1800</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="I9" s="14" t="s">
+      <c r="G9" s="20"/>
+      <c r="I9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="13"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="17"/>
       <c r="M9" s="1">
         <v>20</v>
       </c>
@@ -1007,27 +1024,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14">
+      <c r="E10" s="20"/>
+      <c r="F10" s="19">
         <v>900</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="I10" s="11" t="s">
+      <c r="G10" s="20"/>
+      <c r="I10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="13"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="17"/>
       <c r="M10" s="1">
         <v>100</v>
       </c>
@@ -1035,27 +1052,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14">
+      <c r="E11" s="20"/>
+      <c r="F11" s="19">
         <v>350</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="I11" s="14" t="s">
+      <c r="G11" s="20"/>
+      <c r="I11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="13"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="17"/>
       <c r="M11" s="1">
         <v>100</v>
       </c>
@@ -1063,27 +1080,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14">
+      <c r="E12" s="20"/>
+      <c r="F12" s="19">
         <v>250</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="I12" s="11" t="s">
+      <c r="G12" s="20"/>
+      <c r="I12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="13"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="17"/>
       <c r="M12" s="1">
         <v>20</v>
       </c>
@@ -1091,97 +1108,97 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19">
         <v>1200</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="I13" s="11" t="s">
+      <c r="G13" s="20"/>
+      <c r="I13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="8">
+      <c r="J13" s="18"/>
+      <c r="K13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="7">
         <v>10</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14">
+      <c r="E14" s="20"/>
+      <c r="F14" s="19">
         <v>2400</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="I14" s="11" t="s">
+      <c r="G14" s="20"/>
+      <c r="I14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="10">
+      <c r="J14" s="18"/>
+      <c r="K14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="9">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="1">
         <v>10</v>
       </c>
-      <c r="N14" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="1">
-        <v>5</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="13"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
       <c r="M16" s="1">
         <v>10</v>
       </c>
@@ -1189,172 +1206,172 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="13"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="17"/>
       <c r="M17" s="1">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G18" s="24" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="13"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="17"/>
       <c r="M18" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I19" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="13"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="17"/>
       <c r="M19" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I20" s="11" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="13"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="17"/>
       <c r="M20" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="1">
+        <v>10</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="1">
-        <v>5</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="L22" s="17"/>
+      <c r="M22" s="1">
+        <v>20</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="1">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="1">
         <v>10</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="1">
-        <v>20</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I24" s="11" t="s">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="13"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="17"/>
       <c r="M24" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I25" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="13"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="17"/>
       <c r="M25" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I26" s="11" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13" t="s">
+      <c r="J26" s="20"/>
+      <c r="K26" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="13"/>
+      <c r="L26" s="24"/>
       <c r="M26" s="1">
         <v>20</v>
       </c>
@@ -1362,15 +1379,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I27" s="11" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="13"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="17"/>
       <c r="M27" s="1">
         <v>50</v>
       </c>
@@ -1378,15 +1395,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I28" s="11" t="s">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="13"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="17"/>
       <c r="M28" s="1">
         <v>15</v>
       </c>
@@ -1394,15 +1411,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I29" s="21" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="13"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="17"/>
       <c r="M29" s="1">
         <v>40</v>
       </c>
@@ -1410,7 +1427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H31" s="4"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1419,131 +1436,131 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B33" s="19" t="s">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="H33" s="19" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="H33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="P33" s="9" t="s">
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="P33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T33" s="19" t="s">
+      <c r="T33" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H34" s="19" t="s">
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="H34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="9" t="s">
+      <c r="I34" s="12"/>
+      <c r="J34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="T34" s="19" t="s">
+      <c r="T34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="U34" s="19"/>
-      <c r="V34" s="9" t="s">
+      <c r="U34" s="12"/>
+      <c r="V34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="W34" s="9" t="s">
+      <c r="W34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="X34" s="9" t="s">
+      <c r="X34" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H35" s="19" t="str">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="H35" s="12" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="9" t="str">
+      <c r="I35" s="12"/>
+      <c r="J35" s="8" t="str">
         <f>D14</f>
         <v>Relazione</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="8">
         <v>1</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="T35" s="19" t="str">
+      <c r="T35" s="12" t="str">
         <f>H35</f>
         <v>Acquista</v>
       </c>
-      <c r="U35" s="19"/>
-      <c r="V35" s="9" t="str">
+      <c r="U35" s="12"/>
+      <c r="V35" s="8" t="str">
         <f>J35</f>
         <v>Relazione</v>
       </c>
-      <c r="W35" s="9">
+      <c r="W35" s="8">
         <f>K35</f>
         <v>1</v>
       </c>
-      <c r="X35" s="9" t="str">
+      <c r="X35" s="8" t="str">
         <f>L35</f>
         <v>S</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H36" s="19" t="str">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="H36" s="12" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="9" t="str">
+      <c r="I36" s="12"/>
+      <c r="J36" s="8" t="str">
         <f>D5</f>
         <v>Entità</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <v>1</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H37" s="19" t="str">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="H37" s="12" t="str">
         <f>H36</f>
         <v>Software</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="9" t="str">
+      <c r="I37" s="12"/>
+      <c r="J37" s="8" t="str">
         <f>J36</f>
         <v>Entità</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="8">
         <v>1</v>
       </c>
-      <c r="L37" s="9" t="str">
+      <c r="L37" s="8" t="str">
         <f>L36</f>
         <v>L</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="Q38" s="9" t="s">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Q38" s="8" t="s">
         <v>62</v>
       </c>
       <c r="R38" s="5" t="s">
@@ -1590,8 +1607,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="E40" s="9" t="s">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E40" s="8" t="s">
         <v>62</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -1639,107 +1656,107 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H42" s="19" t="s">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="H42" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="P42" s="9" t="s">
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="P42" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="T42" s="19" t="s">
+      <c r="T42" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H43" s="19" t="s">
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="H43" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="9" t="s">
+      <c r="I43" s="12"/>
+      <c r="J43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="T43" s="19" t="s">
+      <c r="T43" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="U43" s="19"/>
-      <c r="V43" s="9" t="s">
+      <c r="U43" s="12"/>
+      <c r="V43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="W43" s="9" t="s">
+      <c r="W43" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="X43" s="9" t="s">
+      <c r="X43" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H44" s="19" t="str">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="H44" s="12" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="9" t="str">
+      <c r="I44" s="12"/>
+      <c r="J44" s="8" t="str">
         <f>D5</f>
         <v>Entità</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="8">
         <v>1</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="L44" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="T44" s="19" t="str">
+      <c r="T44" s="12" t="str">
         <f>H44</f>
         <v>Software</v>
       </c>
-      <c r="U44" s="19"/>
-      <c r="V44" s="9" t="str">
+      <c r="U44" s="12"/>
+      <c r="V44" s="8" t="str">
         <f>J44</f>
         <v>Entità</v>
       </c>
-      <c r="W44" s="9">
+      <c r="W44" s="8">
         <f>K44</f>
         <v>1</v>
       </c>
-      <c r="X44" s="9" t="str">
+      <c r="X44" s="8" t="str">
         <f>L44</f>
         <v>L</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="T45" s="19" t="str">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T45" s="12" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="U45" s="19"/>
-      <c r="V45" s="9" t="str">
+      <c r="U45" s="12"/>
+      <c r="V45" s="8" t="str">
         <f>D14</f>
         <v>Relazione</v>
       </c>
-      <c r="W45" s="9">
+      <c r="W45" s="8">
         <f>F14/F5</f>
         <v>8</v>
       </c>
-      <c r="X45" s="9" t="s">
+      <c r="X45" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="E47" s="9" t="s">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E47" s="8" t="s">
         <v>62</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -1786,8 +1803,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="Q49" s="9" t="s">
+    <row r="49" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="Q49" s="8" t="s">
         <v>62</v>
       </c>
       <c r="R49" s="5" t="s">
@@ -1834,11 +1851,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E53" s="19" t="s">
+    <row r="53" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E53" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="19"/>
+      <c r="F53" s="12"/>
       <c r="G53" s="5">
         <f>Q40+Q47</f>
         <v>420</v>
@@ -1846,10 +1863,10 @@
       <c r="H53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q53" s="19" t="s">
+      <c r="Q53" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="R53" s="19"/>
+      <c r="R53" s="12"/>
       <c r="S53" s="5">
         <f>AC49+AC38</f>
         <v>380</v>
@@ -1858,89 +1875,57 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E54" s="19" t="s">
+    <row r="54" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E54" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="19"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="5">
         <f>4*F5</f>
         <v>1200</v>
       </c>
-      <c r="Q54" s="19" t="s">
+      <c r="Q54" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="R54" s="19"/>
+      <c r="R54" s="12"/>
       <c r="S54" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
@@ -1957,44 +1942,76 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EEA2E4-6A95-471C-AE05-62C83F383C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF30A78F-61D6-451D-B442-BC8F9B204B50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="68">
   <si>
     <t>Concetto</t>
   </si>
@@ -243,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +257,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,54 +283,65 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF74B6B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -393,19 +420,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -419,68 +433,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF74B6B8"/>
+      <color rgb="FFE844E8"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FF99FFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -789,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05CB62-BCAA-48B8-A379-27A9D8698B8D}">
-  <dimension ref="B1:AD54"/>
+  <dimension ref="B2:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,58 +858,57 @@
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="I2" s="21" t="s">
+      <c r="G2" s="4"/>
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="22"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="19">
         <v>600</v>
       </c>
       <c r="G3" s="20"/>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="17"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="9"/>
       <c r="M3" s="10">
         <v>50</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -861,26 +917,26 @@
         <v>5</v>
       </c>
       <c r="C4" s="20"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="19">
         <v>100</v>
       </c>
       <c r="G4" s="20"/>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="1">
+      <c r="J4" s="13"/>
+      <c r="K4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="10">
         <v>50</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -889,26 +945,26 @@
         <v>6</v>
       </c>
       <c r="C5" s="20"/>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="19">
         <v>300</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="1">
+      <c r="J5" s="8"/>
+      <c r="K5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="10">
         <v>5</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -917,26 +973,26 @@
         <v>7</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="19">
         <v>1200</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="1">
+      <c r="J6" s="13"/>
+      <c r="K6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="10">
         <v>10</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -945,26 +1001,26 @@
         <v>8</v>
       </c>
       <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="19">
         <v>40</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="1">
+      <c r="J7" s="8"/>
+      <c r="K7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="10">
         <v>1000</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -973,26 +1029,26 @@
         <v>9</v>
       </c>
       <c r="C8" s="20"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="19">
         <v>900</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="1">
+      <c r="J8" s="13"/>
+      <c r="K8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="10">
         <v>10</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1001,26 +1057,26 @@
         <v>16</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="19">
         <v>1800</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="1">
+      <c r="J9" s="8"/>
+      <c r="K9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="10">
         <v>20</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1029,26 +1085,26 @@
         <v>11</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="19">
         <v>900</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="1">
+      <c r="J10" s="13"/>
+      <c r="K10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="10">
         <v>100</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1057,26 +1113,26 @@
         <v>10</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="19">
         <v>350</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="1">
+      <c r="J11" s="8"/>
+      <c r="K11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="10">
         <v>100</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1085,26 +1141,26 @@
         <v>12</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="19">
         <v>250</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="1">
+      <c r="J12" s="13"/>
+      <c r="K12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="10">
         <v>20</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1113,26 +1169,26 @@
         <v>13</v>
       </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="19">
         <v>1200</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="7">
+      <c r="J13" s="13"/>
+      <c r="K13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15">
         <v>10</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1141,807 +1197,803 @@
         <v>14</v>
       </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="19">
         <v>2400</v>
       </c>
       <c r="G14" s="20"/>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="17" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="9">
+      <c r="L14" s="14"/>
+      <c r="M14" s="16">
         <v>5</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="1">
+      <c r="J15" s="13"/>
+      <c r="K15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="10">
         <v>10</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="6" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="1">
+      <c r="J16" s="13"/>
+      <c r="K16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="10">
         <v>10</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="8" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="1">
+      <c r="J17" s="13"/>
+      <c r="K17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="10">
         <v>120</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="1">
+      <c r="J18" s="13"/>
+      <c r="K18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="10">
         <v>20</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="1">
+      <c r="J19" s="13"/>
+      <c r="K19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="10">
         <v>30</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="17" t="s">
+      <c r="J20" s="13"/>
+      <c r="K20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="1">
+      <c r="L20" s="14"/>
+      <c r="M20" s="10">
         <v>5</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="1">
+      <c r="J21" s="13"/>
+      <c r="K21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="10">
         <v>10</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="17" t="s">
+      <c r="J22" s="13"/>
+      <c r="K22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="1">
+      <c r="L22" s="14"/>
+      <c r="M22" s="10">
         <v>20</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17" t="s">
+      <c r="J23" s="13"/>
+      <c r="K23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="1">
+      <c r="L23" s="14"/>
+      <c r="M23" s="10">
         <v>10</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="1">
+      <c r="J24" s="13"/>
+      <c r="K24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="10">
         <v>70</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="1">
+      <c r="J25" s="13"/>
+      <c r="K25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="10">
         <v>75</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="24" t="s">
+      <c r="J26" s="8"/>
+      <c r="K26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="1">
+      <c r="L26" s="9"/>
+      <c r="M26" s="10">
         <v>20</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="1">
+      <c r="J27" s="13"/>
+      <c r="K27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" s="10">
         <v>50</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="1">
+      <c r="J28" s="13"/>
+      <c r="K28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="10">
         <v>15</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="1">
+      <c r="J29" s="18"/>
+      <c r="K29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="10">
         <v>40</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H31" s="4"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="H33" s="12" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="H33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="P33" s="8" t="s">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="P33" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="T33" s="12" t="s">
+      <c r="T33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="8" t="s">
+      <c r="I34" s="27"/>
+      <c r="J34" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="T34" s="12" t="s">
+      <c r="T34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U34" s="12"/>
-      <c r="V34" s="8" t="s">
+      <c r="U34" s="3"/>
+      <c r="V34" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="W34" s="8" t="s">
+      <c r="W34" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="X34" s="8" t="s">
+      <c r="X34" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H35" s="12" t="str">
+      <c r="H35" s="29" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="8" t="str">
+      <c r="I35" s="29"/>
+      <c r="J35" s="30" t="str">
         <f>D14</f>
         <v>Relazione</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="30">
         <v>1</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="T35" s="12" t="str">
+      <c r="T35" s="29" t="str">
         <f>H35</f>
         <v>Acquista</v>
       </c>
-      <c r="U35" s="12"/>
-      <c r="V35" s="8" t="str">
+      <c r="U35" s="29"/>
+      <c r="V35" s="30" t="str">
         <f>J35</f>
         <v>Relazione</v>
       </c>
-      <c r="W35" s="8">
+      <c r="W35" s="30">
         <f>K35</f>
         <v>1</v>
       </c>
-      <c r="X35" s="8" t="str">
+      <c r="X35" s="30" t="str">
         <f>L35</f>
         <v>S</v>
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H36" s="12" t="str">
+      <c r="H36" s="29" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="8" t="str">
+      <c r="I36" s="29"/>
+      <c r="J36" s="30" t="str">
         <f>D5</f>
         <v>Entità</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="30">
         <v>1</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H37" s="12" t="str">
+      <c r="H37" s="29" t="str">
         <f>H36</f>
         <v>Software</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="8" t="str">
+      <c r="I37" s="29"/>
+      <c r="J37" s="30" t="str">
         <f>J36</f>
         <v>Entità</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="30">
         <v>1</v>
       </c>
-      <c r="L37" s="8" t="str">
+      <c r="L37" s="30" t="str">
         <f>L36</f>
         <v>L</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Q38" s="8" t="s">
+      <c r="Q38" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="R38" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="32">
         <v>0</v>
       </c>
-      <c r="T38" s="5" t="s">
+      <c r="T38" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="U38" s="5" t="s">
+      <c r="U38" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="V38" s="5">
+      <c r="V38" s="32">
         <f>W35</f>
         <v>1</v>
       </c>
-      <c r="W38" s="5" t="s">
+      <c r="W38" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="X38" s="5" t="s">
+      <c r="X38" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="Y38" s="5" t="s">
+      <c r="Y38" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="Z38" s="5">
+      <c r="Z38" s="32">
         <f>N40</f>
         <v>100</v>
       </c>
-      <c r="AA38" s="5" t="str">
+      <c r="AA38" s="32" t="str">
         <f>O40</f>
         <v>mm</v>
       </c>
-      <c r="AB38" s="5" t="s">
+      <c r="AB38" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AC38" s="5">
+      <c r="AC38" s="32">
         <f>(S38+2*V38)*Z38</f>
         <v>200</v>
       </c>
-      <c r="AD38" s="5" t="s">
+      <c r="AD38" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="32">
         <f>K36+K37</f>
         <v>2</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="32">
         <f>K35</f>
         <v>1</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="32">
         <f>M11</f>
         <v>100</v>
       </c>
-      <c r="O40" s="5" t="str">
+      <c r="O40" s="32" t="str">
         <f>N11</f>
         <v>mm</v>
       </c>
-      <c r="P40" s="5" t="s">
+      <c r="P40" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40" s="32">
         <f>(G40+2*J40)*N40</f>
         <v>400</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="R40" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="P42" s="8" t="s">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="P42" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="T42" s="12" t="s">
+      <c r="T42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="8" t="s">
+      <c r="I43" s="27"/>
+      <c r="J43" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="T43" s="12" t="s">
+      <c r="T43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U43" s="12"/>
-      <c r="V43" s="8" t="s">
+      <c r="U43" s="3"/>
+      <c r="V43" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="W43" s="8" t="s">
+      <c r="W43" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="X43" s="8" t="s">
+      <c r="X43" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H44" s="12" t="str">
+      <c r="H44" s="29" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="8" t="str">
+      <c r="I44" s="29"/>
+      <c r="J44" s="30" t="str">
         <f>D5</f>
         <v>Entità</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="30">
         <v>1</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="T44" s="12" t="str">
+      <c r="T44" s="29" t="str">
         <f>H44</f>
         <v>Software</v>
       </c>
-      <c r="U44" s="12"/>
-      <c r="V44" s="8" t="str">
+      <c r="U44" s="29"/>
+      <c r="V44" s="30" t="str">
         <f>J44</f>
         <v>Entità</v>
       </c>
-      <c r="W44" s="8">
+      <c r="W44" s="30">
         <f>K44</f>
         <v>1</v>
       </c>
-      <c r="X44" s="8" t="str">
+      <c r="X44" s="30" t="str">
         <f>L44</f>
         <v>L</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="T45" s="12" t="str">
+      <c r="T45" s="29" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="U45" s="12"/>
-      <c r="V45" s="8" t="str">
+      <c r="U45" s="29"/>
+      <c r="V45" s="30" t="str">
         <f>D14</f>
         <v>Relazione</v>
       </c>
-      <c r="W45" s="8">
+      <c r="W45" s="30">
         <f>F14/F5</f>
         <v>8</v>
       </c>
-      <c r="X45" s="8" t="s">
+      <c r="X45" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="32">
         <f>K44</f>
         <v>1</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="32">
         <v>0</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="32">
         <f>M26</f>
         <v>20</v>
       </c>
-      <c r="O47" s="5" t="str">
+      <c r="O47" s="32" t="str">
         <f>N26</f>
         <v>mm</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="P47" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q47" s="32">
         <f>(G47+2*J47)*N47</f>
         <v>20</v>
       </c>
-      <c r="R47" s="5" t="s">
+      <c r="R47" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="Q49" s="8" t="s">
+      <c r="Q49" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="R49" s="5" t="s">
+      <c r="R49" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="S49" s="5">
+      <c r="S49" s="32">
         <f>W44+W45</f>
         <v>9</v>
       </c>
-      <c r="T49" s="5" t="s">
+      <c r="T49" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="U49" s="5" t="s">
+      <c r="U49" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="V49" s="5">
+      <c r="V49" s="32">
         <v>0</v>
       </c>
-      <c r="W49" s="5" t="s">
+      <c r="W49" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="X49" s="5" t="s">
+      <c r="X49" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="Y49" s="5" t="s">
+      <c r="Y49" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="Z49" s="5">
+      <c r="Z49" s="32">
         <f>N47</f>
         <v>20</v>
       </c>
-      <c r="AA49" s="5" t="str">
+      <c r="AA49" s="32" t="str">
         <f>O47</f>
         <v>mm</v>
       </c>
-      <c r="AB49" s="5" t="s">
+      <c r="AB49" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AC49" s="5">
+      <c r="AC49" s="32">
         <f>(S49+2*V49)*Z49</f>
         <v>180</v>
       </c>
-      <c r="AD49" s="5" t="s">
+      <c r="AD49" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="5">
+      <c r="F53" s="35"/>
+      <c r="G53" s="36">
         <f>Q40+Q47</f>
         <v>420</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="Q53" s="12" t="s">
+      <c r="Q53" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="R53" s="12"/>
-      <c r="S53" s="5">
+      <c r="R53" s="35"/>
+      <c r="S53" s="36">
         <f>AC49+AC38</f>
         <v>380</v>
       </c>
-      <c r="T53" s="5" t="s">
+      <c r="T53" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="5">
+      <c r="F54" s="35"/>
+      <c r="G54" s="36">
         <f>4*F5</f>
         <v>1200</v>
       </c>
-      <c r="Q54" s="12" t="s">
+      <c r="H54" s="34"/>
+      <c r="Q54" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="R54" s="12"/>
-      <c r="S54" s="5">
+      <c r="R54" s="35"/>
+      <c r="S54" s="36">
         <v>0</v>
       </c>
+      <c r="T54" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="I8:J8"/>
@@ -1966,52 +2018,58 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\SoftwareHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF30A78F-61D6-451D-B442-BC8F9B204B50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410CFD61-9AF0-49D5-970B-01AE5A27A341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
   <si>
     <t>Concetto</t>
   </si>
@@ -437,62 +437,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -502,12 +451,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,10 +462,67 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05CB62-BCAA-48B8-A379-27A9D8698B8D}">
   <dimension ref="B2:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="T53" sqref="T53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,627 +859,627 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="19">
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
         <v>600</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="34"/>
+      <c r="I3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10">
+      <c r="J3" s="23"/>
+      <c r="K3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="3">
         <v>50</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="19">
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
         <v>100</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="I4" s="12" t="s">
+      <c r="G4" s="34"/>
+      <c r="I4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="10">
+      <c r="J4" s="26"/>
+      <c r="K4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="3">
         <v>50</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="19">
+      <c r="E5" s="36"/>
+      <c r="F5" s="33">
         <v>300</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="34"/>
+      <c r="I5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="10">
+      <c r="J5" s="23"/>
+      <c r="K5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="3">
         <v>5</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="19">
+      <c r="E6" s="36"/>
+      <c r="F6" s="33">
         <v>1200</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="I6" s="12" t="s">
+      <c r="G6" s="34"/>
+      <c r="I6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="10">
+      <c r="J6" s="26"/>
+      <c r="K6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="3">
         <v>10</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="19">
+      <c r="E7" s="36"/>
+      <c r="F7" s="33">
         <v>40</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="34"/>
+      <c r="I7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="10">
+      <c r="J7" s="23"/>
+      <c r="K7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="3">
         <v>1000</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="19">
+      <c r="E8" s="36"/>
+      <c r="F8" s="33">
         <v>900</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="I8" s="12" t="s">
+      <c r="G8" s="34"/>
+      <c r="I8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="10">
+      <c r="J8" s="26"/>
+      <c r="K8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="3">
         <v>10</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="19">
+      <c r="E9" s="36"/>
+      <c r="F9" s="33">
         <v>1800</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="I9" s="7" t="s">
+      <c r="G9" s="34"/>
+      <c r="I9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="10">
+      <c r="J9" s="23"/>
+      <c r="K9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="3">
         <v>20</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="19">
+      <c r="E10" s="36"/>
+      <c r="F10" s="33">
         <v>900</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="I10" s="12" t="s">
+      <c r="G10" s="34"/>
+      <c r="I10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="10">
+      <c r="J10" s="26"/>
+      <c r="K10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="19">
+      <c r="E11" s="36"/>
+      <c r="F11" s="33">
         <v>350</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="I11" s="7" t="s">
+      <c r="G11" s="34"/>
+      <c r="I11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="10">
+      <c r="J11" s="23"/>
+      <c r="K11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="3">
         <v>100</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="19">
+      <c r="E12" s="36"/>
+      <c r="F12" s="33">
         <v>250</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="I12" s="12" t="s">
+      <c r="G12" s="34"/>
+      <c r="I12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="10">
+      <c r="J12" s="26"/>
+      <c r="K12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="3">
         <v>20</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="19">
+      <c r="E13" s="36"/>
+      <c r="F13" s="33">
         <v>1200</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="I13" s="12" t="s">
+      <c r="G13" s="34"/>
+      <c r="I13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15">
+      <c r="J13" s="26"/>
+      <c r="K13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="5">
         <v>10</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="19">
+      <c r="E14" s="36"/>
+      <c r="F14" s="33">
         <v>2400</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="I14" s="12" t="s">
+      <c r="G14" s="34"/>
+      <c r="I14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14" t="s">
+      <c r="J14" s="26"/>
+      <c r="K14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="16">
+      <c r="L14" s="24"/>
+      <c r="M14" s="6">
         <v>5</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="10">
+      <c r="J15" s="26"/>
+      <c r="K15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="3">
         <v>10</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="25" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="10">
+      <c r="J16" s="26"/>
+      <c r="K16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="24"/>
+      <c r="M16" s="3">
         <v>10</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="23" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="10">
+      <c r="J17" s="26"/>
+      <c r="K17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="3">
         <v>120</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="3">
+        <v>20</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="3">
+        <v>30</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="3">
+        <v>5</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="3">
+        <v>10</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="3">
+        <v>20</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="24"/>
+      <c r="M23" s="3">
+        <v>10</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="24"/>
+      <c r="M24" s="3">
+        <v>70</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="26"/>
+      <c r="K25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="24"/>
+      <c r="M25" s="3">
+        <v>20</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="10">
-        <v>20</v>
-      </c>
-      <c r="N18" s="11" t="s">
+      <c r="J26" s="23"/>
+      <c r="K26" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="30"/>
+      <c r="M26" s="3">
+        <v>75</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="10">
-        <v>30</v>
-      </c>
-      <c r="N19" s="11" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="26"/>
+      <c r="K27" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="24"/>
+      <c r="M27" s="3">
+        <v>50</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="10">
-        <v>5</v>
-      </c>
-      <c r="N20" s="11" t="s">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="M28" s="3">
+        <v>15</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="10">
-        <v>10</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="10">
-        <v>20</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="10">
-        <v>10</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="12" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="24"/>
+      <c r="M29" s="3">
         <v>40</v>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="10">
-        <v>70</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="10">
-        <v>75</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10">
-        <v>20</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="10">
-        <v>50</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I28" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="10">
-        <v>15</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="10">
-        <v>40</v>
-      </c>
-      <c r="N29" s="11" t="s">
+      <c r="N29" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1493,483 +1493,541 @@
       <c r="N31" s="1"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="H33" s="3" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="H33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="P33" s="26" t="s">
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="P33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="T33" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="28" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="L34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="T34" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="U34" s="3"/>
-      <c r="V34" s="33" t="s">
+      <c r="U34" s="18"/>
+      <c r="V34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="W34" s="33" t="s">
+      <c r="W34" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="X34" s="33" t="s">
+      <c r="X34" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H35" s="29" t="str">
+      <c r="H35" s="19" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30" t="str">
+      <c r="I35" s="19"/>
+      <c r="J35" s="11" t="str">
         <f>D14</f>
         <v>Relazione</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="11">
         <v>1</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="T35" s="29" t="str">
+      <c r="T35" s="19" t="str">
         <f>H35</f>
         <v>Acquista</v>
       </c>
-      <c r="U35" s="29"/>
-      <c r="V35" s="30" t="str">
+      <c r="U35" s="19"/>
+      <c r="V35" s="11" t="str">
         <f>J35</f>
         <v>Relazione</v>
       </c>
-      <c r="W35" s="30">
+      <c r="W35" s="11">
         <f>K35</f>
         <v>1</v>
       </c>
-      <c r="X35" s="30" t="str">
+      <c r="X35" s="11" t="str">
         <f>L35</f>
         <v>S</v>
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H36" s="29" t="str">
+      <c r="H36" s="19" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30" t="str">
+      <c r="I36" s="19"/>
+      <c r="J36" s="11" t="str">
         <f>D5</f>
         <v>Entità</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="11">
         <v>1</v>
       </c>
-      <c r="L36" s="30" t="s">
+      <c r="L36" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H37" s="29" t="str">
+      <c r="H37" s="19" t="str">
         <f>H36</f>
         <v>Software</v>
       </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="30" t="str">
+      <c r="I37" s="19"/>
+      <c r="J37" s="11" t="str">
         <f>J36</f>
         <v>Entità</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37" s="11">
         <v>1</v>
       </c>
-      <c r="L37" s="30" t="str">
+      <c r="L37" s="11" t="str">
         <f>L36</f>
         <v>L</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Q38" s="31" t="s">
+      <c r="Q38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="R38" s="32" t="s">
+      <c r="R38" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="S38" s="32">
+      <c r="S38" s="13">
         <v>0</v>
       </c>
-      <c r="T38" s="32" t="s">
+      <c r="T38" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="U38" s="32" t="s">
+      <c r="U38" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V38" s="32">
+      <c r="V38" s="13">
         <f>W35</f>
         <v>1</v>
       </c>
-      <c r="W38" s="32" t="s">
+      <c r="W38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X38" s="32" t="s">
+      <c r="X38" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Y38" s="32" t="s">
+      <c r="Y38" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Z38" s="32">
+      <c r="Z38" s="13">
         <f>N40</f>
         <v>100</v>
       </c>
-      <c r="AA38" s="32" t="str">
+      <c r="AA38" s="13" t="str">
         <f>O40</f>
         <v>mm</v>
       </c>
-      <c r="AB38" s="32" t="s">
+      <c r="AB38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC38" s="32">
+      <c r="AC38" s="13">
         <f>(S38+2*V38)*Z38</f>
         <v>200</v>
       </c>
-      <c r="AD38" s="32" t="s">
+      <c r="AD38" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="13">
         <f>K36+K37</f>
         <v>2</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J40" s="32">
+      <c r="J40" s="13">
         <f>K35</f>
         <v>1</v>
       </c>
-      <c r="K40" s="32" t="s">
+      <c r="K40" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="32" t="s">
+      <c r="L40" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M40" s="32" t="s">
+      <c r="M40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N40" s="32">
+      <c r="N40" s="13">
         <f>M11</f>
         <v>100</v>
       </c>
-      <c r="O40" s="32" t="str">
+      <c r="O40" s="13" t="str">
         <f>N11</f>
         <v>mm</v>
       </c>
-      <c r="P40" s="32" t="s">
+      <c r="P40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q40" s="32">
+      <c r="Q40" s="13">
         <f>(G40+2*J40)*N40</f>
         <v>400</v>
       </c>
-      <c r="R40" s="32" t="s">
+      <c r="R40" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="P42" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="T42" s="3" t="s">
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="P42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T42" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28" t="s">
+      <c r="I43" s="17"/>
+      <c r="J43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="28" t="s">
+      <c r="K43" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L43" s="28" t="s">
+      <c r="L43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="T43" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="U43" s="3"/>
-      <c r="V43" s="33" t="s">
+      <c r="U43" s="18"/>
+      <c r="V43" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="W43" s="33" t="s">
+      <c r="W43" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="X43" s="33" t="s">
+      <c r="X43" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H44" s="29" t="str">
+      <c r="H44" s="19" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="30" t="str">
+      <c r="I44" s="19"/>
+      <c r="J44" s="11" t="str">
         <f>D5</f>
         <v>Entità</v>
       </c>
-      <c r="K44" s="30">
+      <c r="K44" s="11">
         <v>1</v>
       </c>
-      <c r="L44" s="30" t="s">
+      <c r="L44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T44" s="29" t="str">
+      <c r="T44" s="19" t="str">
         <f>H44</f>
         <v>Software</v>
       </c>
-      <c r="U44" s="29"/>
-      <c r="V44" s="30" t="str">
+      <c r="U44" s="19"/>
+      <c r="V44" s="11" t="str">
         <f>J44</f>
         <v>Entità</v>
       </c>
-      <c r="W44" s="30">
+      <c r="W44" s="11">
         <f>K44</f>
         <v>1</v>
       </c>
-      <c r="X44" s="30" t="str">
+      <c r="X44" s="11" t="str">
         <f>L44</f>
         <v>L</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="T45" s="29" t="str">
+      <c r="T45" s="19" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="U45" s="29"/>
-      <c r="V45" s="30" t="str">
+      <c r="U45" s="19"/>
+      <c r="V45" s="11" t="str">
         <f>D14</f>
         <v>Relazione</v>
       </c>
-      <c r="W45" s="30">
+      <c r="W45" s="11">
         <f>F14/F5</f>
         <v>8</v>
       </c>
-      <c r="X45" s="30" t="s">
+      <c r="X45" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="13">
         <f>K44</f>
         <v>1</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H47" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J47" s="32">
+      <c r="J47" s="13">
         <v>0</v>
       </c>
-      <c r="K47" s="32" t="s">
+      <c r="K47" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L47" s="32" t="s">
+      <c r="L47" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M47" s="32" t="s">
+      <c r="M47" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N47" s="32">
-        <f>M26</f>
+      <c r="N47" s="13">
+        <f>M25</f>
         <v>20</v>
       </c>
-      <c r="O47" s="32" t="str">
+      <c r="O47" s="13" t="str">
         <f>N26</f>
         <v>mm</v>
       </c>
-      <c r="P47" s="32" t="s">
+      <c r="P47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q47" s="32">
+      <c r="Q47" s="13">
         <f>(G47+2*J47)*N47</f>
         <v>20</v>
       </c>
-      <c r="R47" s="32" t="s">
+      <c r="R47" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="Q49" s="31" t="s">
+      <c r="Q49" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="R49" s="32" t="s">
+      <c r="R49" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="S49" s="32">
+      <c r="S49" s="13">
         <f>W44+W45</f>
         <v>9</v>
       </c>
-      <c r="T49" s="32" t="s">
+      <c r="T49" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="U49" s="32" t="s">
+      <c r="U49" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V49" s="32">
+      <c r="V49" s="13">
         <v>0</v>
       </c>
-      <c r="W49" s="32" t="s">
+      <c r="W49" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X49" s="32" t="s">
+      <c r="X49" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Y49" s="32" t="s">
+      <c r="Y49" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Z49" s="32">
+      <c r="Z49" s="13">
         <f>N47</f>
         <v>20</v>
       </c>
-      <c r="AA49" s="32" t="str">
+      <c r="AA49" s="13" t="str">
         <f>O47</f>
         <v>mm</v>
       </c>
-      <c r="AB49" s="32" t="s">
+      <c r="AB49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC49" s="32">
+      <c r="AC49" s="13">
         <f>(S49+2*V49)*Z49</f>
         <v>180</v>
       </c>
-      <c r="AD49" s="32" t="s">
+      <c r="AD49" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36">
+      <c r="F53" s="20"/>
+      <c r="G53" s="16">
         <f>Q40+Q47</f>
         <v>420</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="H53" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Q53" s="35" t="s">
+      <c r="Q53" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="R53" s="35"/>
-      <c r="S53" s="36">
+      <c r="R53" s="20"/>
+      <c r="S53" s="16">
         <f>AC49+AC38</f>
         <v>380</v>
       </c>
-      <c r="T53" s="36" t="s">
+      <c r="T53" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36">
+      <c r="F54" s="20"/>
+      <c r="G54" s="16">
         <f>4*F5</f>
         <v>1200</v>
       </c>
-      <c r="H54" s="34"/>
-      <c r="Q54" s="35" t="s">
+      <c r="H54" s="15"/>
+      <c r="Q54" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="R54" s="35"/>
-      <c r="S54" s="36">
+      <c r="R54" s="20"/>
+      <c r="S54" s="16">
         <v>0</v>
       </c>
-      <c r="T54" s="34"/>
+      <c r="T54" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="I10:J10"/>
@@ -1994,82 +2052,24 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\SoftwareHouse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410CFD61-9AF0-49D5-970B-01AE5A27A341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA53424-15B0-4EF1-A83B-BC9F7922ABC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -463,64 +461,64 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -848,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05CB62-BCAA-48B8-A379-27A9D8698B8D}">
   <dimension ref="B2:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,52 +857,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="28"/>
+      <c r="I2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
+      <c r="E3" s="23"/>
+      <c r="F3" s="20">
         <v>600</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="21"/>
+      <c r="I3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="30"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="27"/>
       <c r="M3" s="3">
         <v>50</v>
       </c>
@@ -913,26 +911,26 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
+      <c r="E4" s="23"/>
+      <c r="F4" s="20">
         <v>100</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="I4" s="25" t="s">
+      <c r="G4" s="21"/>
+      <c r="I4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="24"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="19"/>
       <c r="M4" s="3">
         <v>50</v>
       </c>
@@ -941,26 +939,26 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="33">
+      <c r="E5" s="23"/>
+      <c r="F5" s="20">
         <v>300</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="I5" s="22" t="s">
+      <c r="G5" s="21"/>
+      <c r="I5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="24"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="19"/>
       <c r="M5" s="3">
         <v>5</v>
       </c>
@@ -969,26 +967,26 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="33">
+      <c r="E6" s="23"/>
+      <c r="F6" s="20">
         <v>1200</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="I6" s="25" t="s">
+      <c r="G6" s="21"/>
+      <c r="I6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="24"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="19"/>
       <c r="M6" s="3">
         <v>10</v>
       </c>
@@ -997,26 +995,26 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="33">
+      <c r="E7" s="23"/>
+      <c r="F7" s="20">
         <v>40</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="I7" s="22" t="s">
+      <c r="G7" s="21"/>
+      <c r="I7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="24"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="19"/>
       <c r="M7" s="3">
         <v>1000</v>
       </c>
@@ -1025,26 +1023,26 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="33">
+      <c r="E8" s="23"/>
+      <c r="F8" s="20">
         <v>900</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="I8" s="25" t="s">
+      <c r="G8" s="21"/>
+      <c r="I8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="24"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="19"/>
       <c r="M8" s="3">
         <v>10</v>
       </c>
@@ -1053,26 +1051,26 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="33">
+      <c r="E9" s="23"/>
+      <c r="F9" s="20">
         <v>1800</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="I9" s="22" t="s">
+      <c r="G9" s="21"/>
+      <c r="I9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="24"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="19"/>
       <c r="M9" s="3">
         <v>20</v>
       </c>
@@ -1081,26 +1079,26 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="33">
+      <c r="E10" s="23"/>
+      <c r="F10" s="20">
         <v>900</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="I10" s="25" t="s">
+      <c r="G10" s="21"/>
+      <c r="I10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="24"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="19"/>
       <c r="M10" s="3">
         <v>100</v>
       </c>
@@ -1109,26 +1107,26 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="33">
+      <c r="E11" s="23"/>
+      <c r="F11" s="20">
         <v>350</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="I11" s="22" t="s">
+      <c r="G11" s="21"/>
+      <c r="I11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="24"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="19"/>
       <c r="M11" s="3">
         <v>100</v>
       </c>
@@ -1137,26 +1135,26 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="33">
+      <c r="E12" s="23"/>
+      <c r="F12" s="20">
         <v>250</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="I12" s="25" t="s">
+      <c r="G12" s="21"/>
+      <c r="I12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="24"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="19"/>
       <c r="M12" s="3">
         <v>20</v>
       </c>
@@ -1165,26 +1163,26 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="33">
+      <c r="E13" s="23"/>
+      <c r="F13" s="20">
         <v>1200</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="I13" s="25" t="s">
+      <c r="G13" s="21"/>
+      <c r="I13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="24"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="19"/>
       <c r="M13" s="5">
         <v>10</v>
       </c>
@@ -1193,26 +1191,26 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="33">
+      <c r="E14" s="23"/>
+      <c r="F14" s="20">
         <v>2400</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="I14" s="25" t="s">
+      <c r="G14" s="21"/>
+      <c r="I14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="24" t="s">
+      <c r="J14" s="18"/>
+      <c r="K14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="24"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="6">
         <v>5</v>
       </c>
@@ -1221,14 +1219,14 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="24"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="19"/>
       <c r="M15" s="3">
         <v>10</v>
       </c>
@@ -1237,24 +1235,24 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="24"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="19"/>
       <c r="M16" s="3">
         <v>10</v>
       </c>
@@ -1263,24 +1261,24 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="27"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="24"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="19"/>
       <c r="M17" s="3">
         <v>120</v>
       </c>
@@ -1290,16 +1288,16 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="24"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="19"/>
       <c r="M18" s="3">
         <v>20</v>
       </c>
@@ -1308,14 +1306,14 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="24"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="19"/>
       <c r="M19" s="3">
         <v>30</v>
       </c>
@@ -1324,14 +1322,14 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="3">
         <v>5</v>
       </c>
@@ -1340,14 +1338,14 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="24"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="19"/>
       <c r="M21" s="3">
         <v>10</v>
       </c>
@@ -1356,14 +1354,14 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="24" t="s">
+      <c r="J22" s="18"/>
+      <c r="K22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="24"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="3">
         <v>20</v>
       </c>
@@ -1372,14 +1370,14 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="24" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="24"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="3">
         <v>10</v>
       </c>
@@ -1388,14 +1386,14 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="24"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="19"/>
       <c r="M24" s="3">
         <v>70</v>
       </c>
@@ -1404,14 +1402,14 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="24"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="19"/>
       <c r="M25" s="3">
         <v>20</v>
       </c>
@@ -1420,14 +1418,14 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="30"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="27"/>
       <c r="M26" s="3">
         <v>75</v>
       </c>
@@ -1436,14 +1434,14 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="24"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="19"/>
       <c r="M27" s="3">
         <v>50</v>
       </c>
@@ -1452,14 +1450,14 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="24"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="19"/>
       <c r="M28" s="3">
         <v>15</v>
       </c>
@@ -1468,14 +1466,14 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="24"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="19"/>
       <c r="M29" s="3">
         <v>40</v>
       </c>
@@ -1493,36 +1491,36 @@
       <c r="N31" s="1"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="H33" s="18" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="H33" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
       <c r="P33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T33" s="18" t="s">
+      <c r="T33" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="17"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1532,10 +1530,10 @@
       <c r="L34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T34" s="18" t="s">
+      <c r="T34" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="U34" s="18"/>
+      <c r="U34" s="29"/>
       <c r="V34" s="14" t="s">
         <v>50</v>
       </c>
@@ -1547,11 +1545,11 @@
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H35" s="19" t="str">
+      <c r="H35" s="35" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="I35" s="19"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="11" t="str">
         <f>D14</f>
         <v>Relazione</v>
@@ -1562,11 +1560,11 @@
       <c r="L35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="T35" s="19" t="str">
+      <c r="T35" s="35" t="str">
         <f>H35</f>
         <v>Acquista</v>
       </c>
-      <c r="U35" s="19"/>
+      <c r="U35" s="35"/>
       <c r="V35" s="11" t="str">
         <f>J35</f>
         <v>Relazione</v>
@@ -1581,11 +1579,11 @@
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H36" s="19" t="str">
+      <c r="H36" s="35" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I36" s="19"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="11" t="str">
         <f>D5</f>
         <v>Entità</v>
@@ -1598,11 +1596,11 @@
       </c>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H37" s="19" t="str">
+      <c r="H37" s="35" t="str">
         <f>H36</f>
         <v>Software</v>
       </c>
-      <c r="I37" s="19"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="11" t="str">
         <f>J36</f>
         <v>Entità</v>
@@ -1713,29 +1711,29 @@
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
       <c r="P42" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T42" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="T42" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="17"/>
+      <c r="I43" s="34"/>
       <c r="J43" s="10" t="s">
         <v>50</v>
       </c>
@@ -1745,10 +1743,10 @@
       <c r="L43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T43" s="18" t="s">
+      <c r="T43" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="U43" s="18"/>
+      <c r="U43" s="29"/>
       <c r="V43" s="14" t="s">
         <v>50</v>
       </c>
@@ -1760,11 +1758,11 @@
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H44" s="19" t="str">
+      <c r="H44" s="35" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I44" s="19"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="11" t="str">
         <f>D5</f>
         <v>Entità</v>
@@ -1775,11 +1773,11 @@
       <c r="L44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T44" s="19" t="str">
+      <c r="T44" s="35" t="str">
         <f>H44</f>
         <v>Software</v>
       </c>
-      <c r="U44" s="19"/>
+      <c r="U44" s="35"/>
       <c r="V44" s="11" t="str">
         <f>J44</f>
         <v>Entità</v>
@@ -1794,11 +1792,11 @@
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="T45" s="19" t="str">
+      <c r="T45" s="35" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="U45" s="19"/>
+      <c r="U45" s="35"/>
       <c r="V45" s="11" t="str">
         <f>D14</f>
         <v>Relazione</v>
@@ -1908,10 +1906,10 @@
       </c>
     </row>
     <row r="53" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="20"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="16">
         <f>Q40+Q47</f>
         <v>420</v>
@@ -1919,10 +1917,10 @@
       <c r="H53" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Q53" s="20" t="s">
+      <c r="Q53" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="R53" s="20"/>
+      <c r="R53" s="36"/>
       <c r="S53" s="16">
         <f>AC49+AC38</f>
         <v>380</v>
@@ -1932,19 +1930,19 @@
       </c>
     </row>
     <row r="54" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="20"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="16">
         <f>4*F5</f>
         <v>1200</v>
       </c>
       <c r="H54" s="15"/>
-      <c r="Q54" s="20" t="s">
+      <c r="Q54" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="R54" s="20"/>
+      <c r="R54" s="36"/>
       <c r="S54" s="16">
         <v>0</v>
       </c>
@@ -1952,58 +1950,48 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="I8:J8"/>
@@ -2028,48 +2016,58 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="T42:X42"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA53424-15B0-4EF1-A83B-BC9F7922ABC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36626AFB-7308-4943-A855-6E00D2202F25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05CB62-BCAA-48B8-A379-27A9D8698B8D}">
   <dimension ref="B2:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="E27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G18" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>34</v>
@@ -1719,7 +1719,7 @@
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="P42" s="9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="T42" s="29" t="s">
         <v>51</v>

--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\SoftwareHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36626AFB-7308-4943-A855-6E00D2202F25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F765079-6225-4674-A12C-D7981AAA8B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
   <si>
     <t>Concetto</t>
   </si>
@@ -846,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05CB62-BCAA-48B8-A379-27A9D8698B8D}">
   <dimension ref="B2:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" topLeftCell="F36" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,9 +1610,8 @@
       <c r="K37" s="11">
         <v>1</v>
       </c>
-      <c r="L37" s="11" t="str">
-        <f>L36</f>
-        <v>L</v>
+      <c r="L37" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
@@ -1669,8 +1670,8 @@
         <v>64</v>
       </c>
       <c r="G40" s="13">
-        <f>K36+K37</f>
-        <v>2</v>
+        <f>K36</f>
+        <v>1</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>52</v>
@@ -1679,8 +1680,8 @@
         <v>63</v>
       </c>
       <c r="J40" s="13">
-        <f>K35</f>
-        <v>1</v>
+        <f>K37+K35</f>
+        <v>2</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>61</v>
@@ -1704,7 +1705,7 @@
       </c>
       <c r="Q40" s="13">
         <f>(G40+2*J40)*N40</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R40" s="13" t="s">
         <v>55</v>
@@ -1912,7 +1913,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="16">
         <f>Q40+Q47</f>
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>55</v>

--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\SoftwareHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F765079-6225-4674-A12C-D7981AAA8B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3207085E-8CEB-417D-B82D-F14877CAC4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
@@ -463,13 +463,52 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,45 +521,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05CB62-BCAA-48B8-A379-27A9D8698B8D}">
   <dimension ref="B2:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F36" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,52 +859,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="32"/>
+      <c r="I2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="24"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="20">
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
         <v>600</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="I3" s="25" t="s">
+      <c r="G3" s="34"/>
+      <c r="I3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="27"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="30"/>
       <c r="M3" s="3">
         <v>50</v>
       </c>
@@ -913,26 +913,26 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="20">
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
         <v>100</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="34"/>
+      <c r="I4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="19"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="24"/>
       <c r="M4" s="3">
         <v>50</v>
       </c>
@@ -941,26 +941,26 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20">
+      <c r="E5" s="36"/>
+      <c r="F5" s="33">
         <v>300</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="I5" s="25" t="s">
+      <c r="G5" s="34"/>
+      <c r="I5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="19"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="24"/>
       <c r="M5" s="3">
         <v>5</v>
       </c>
@@ -969,26 +969,26 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="20">
+      <c r="E6" s="36"/>
+      <c r="F6" s="33">
         <v>1200</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="I6" s="17" t="s">
+      <c r="G6" s="34"/>
+      <c r="I6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="19"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="24"/>
       <c r="M6" s="3">
         <v>10</v>
       </c>
@@ -997,26 +997,26 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="20">
-        <v>40</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="I7" s="25" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="33">
+        <v>100</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="I7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="19"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="24"/>
       <c r="M7" s="3">
         <v>1000</v>
       </c>
@@ -1025,26 +1025,26 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="20">
+      <c r="E8" s="36"/>
+      <c r="F8" s="33">
         <v>900</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="I8" s="17" t="s">
+      <c r="G8" s="34"/>
+      <c r="I8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="19"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="24"/>
       <c r="M8" s="3">
         <v>10</v>
       </c>
@@ -1053,26 +1053,26 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="20">
+      <c r="E9" s="36"/>
+      <c r="F9" s="33">
         <v>1800</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="I9" s="25" t="s">
+      <c r="G9" s="34"/>
+      <c r="I9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="19"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="24"/>
       <c r="M9" s="3">
         <v>20</v>
       </c>
@@ -1081,26 +1081,26 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="20">
+      <c r="E10" s="36"/>
+      <c r="F10" s="33">
         <v>900</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="I10" s="17" t="s">
+      <c r="G10" s="34"/>
+      <c r="I10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="19"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="24"/>
       <c r="M10" s="3">
         <v>100</v>
       </c>
@@ -1109,26 +1109,26 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="20">
+      <c r="E11" s="36"/>
+      <c r="F11" s="33">
         <v>350</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="I11" s="25" t="s">
+      <c r="G11" s="34"/>
+      <c r="I11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="19"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="24"/>
       <c r="M11" s="3">
         <v>100</v>
       </c>
@@ -1137,26 +1137,26 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="20">
+      <c r="E12" s="36"/>
+      <c r="F12" s="33">
         <v>250</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="I12" s="17" t="s">
+      <c r="G12" s="34"/>
+      <c r="I12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="19"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="24"/>
       <c r="M12" s="3">
         <v>20</v>
       </c>
@@ -1165,26 +1165,26 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="20">
+      <c r="E13" s="36"/>
+      <c r="F13" s="33">
         <v>1200</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="I13" s="17" t="s">
+      <c r="G13" s="34"/>
+      <c r="I13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="19"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="24"/>
       <c r="M13" s="5">
         <v>10</v>
       </c>
@@ -1193,26 +1193,26 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="20">
+      <c r="E14" s="36"/>
+      <c r="F14" s="33">
         <v>2400</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="I14" s="17" t="s">
+      <c r="G14" s="34"/>
+      <c r="I14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19" t="s">
+      <c r="J14" s="26"/>
+      <c r="K14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="19"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="6">
         <v>5</v>
       </c>
@@ -1221,14 +1221,14 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="19"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="24"/>
       <c r="M15" s="3">
         <v>10</v>
       </c>
@@ -1237,24 +1237,24 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="19"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="24"/>
       <c r="M16" s="3">
         <v>10</v>
       </c>
@@ -1263,24 +1263,24 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="19"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="24"/>
       <c r="M17" s="3">
         <v>120</v>
       </c>
@@ -1292,14 +1292,14 @@
       <c r="G18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="19"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="24"/>
       <c r="M18" s="3">
         <v>20</v>
       </c>
@@ -1308,14 +1308,14 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="19"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="24"/>
       <c r="M19" s="3">
         <v>30</v>
       </c>
@@ -1324,14 +1324,14 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19" t="s">
+      <c r="J20" s="26"/>
+      <c r="K20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="19"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="3">
         <v>5</v>
       </c>
@@ -1340,14 +1340,14 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="19"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="24"/>
       <c r="M21" s="3">
         <v>10</v>
       </c>
@@ -1356,14 +1356,14 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19" t="s">
+      <c r="J22" s="26"/>
+      <c r="K22" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="19"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="3">
         <v>20</v>
       </c>
@@ -1372,14 +1372,14 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19" t="s">
+      <c r="J23" s="26"/>
+      <c r="K23" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="19"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="3">
         <v>10</v>
       </c>
@@ -1388,14 +1388,14 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="19"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="24"/>
       <c r="M24" s="3">
         <v>70</v>
       </c>
@@ -1404,14 +1404,14 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="19"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="24"/>
       <c r="M25" s="3">
         <v>20</v>
       </c>
@@ -1420,14 +1420,14 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="27"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="30"/>
       <c r="M26" s="3">
         <v>75</v>
       </c>
@@ -1436,14 +1436,14 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="19"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="24"/>
       <c r="M27" s="3">
         <v>50</v>
       </c>
@@ -1452,14 +1452,14 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="19"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="24"/>
       <c r="M28" s="3">
         <v>15</v>
       </c>
@@ -1468,14 +1468,14 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="19"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="24"/>
       <c r="M29" s="3">
         <v>40</v>
       </c>
@@ -1493,36 +1493,36 @@
       <c r="N31" s="1"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="H33" s="29" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="H33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
       <c r="P33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T33" s="29" t="s">
+      <c r="T33" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1532,10 +1532,10 @@
       <c r="L34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T34" s="29" t="s">
+      <c r="T34" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="U34" s="29"/>
+      <c r="U34" s="18"/>
       <c r="V34" s="14" t="s">
         <v>50</v>
       </c>
@@ -1547,11 +1547,11 @@
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H35" s="35" t="str">
+      <c r="H35" s="19" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="I35" s="35"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="11" t="str">
         <f>D14</f>
         <v>Relazione</v>
@@ -1562,11 +1562,11 @@
       <c r="L35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="T35" s="35" t="str">
+      <c r="T35" s="19" t="str">
         <f>H35</f>
         <v>Acquista</v>
       </c>
-      <c r="U35" s="35"/>
+      <c r="U35" s="19"/>
       <c r="V35" s="11" t="str">
         <f>J35</f>
         <v>Relazione</v>
@@ -1581,11 +1581,11 @@
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H36" s="35" t="str">
+      <c r="H36" s="19" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I36" s="35"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="11" t="str">
         <f>D5</f>
         <v>Entità</v>
@@ -1598,11 +1598,11 @@
       </c>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H37" s="35" t="str">
+      <c r="H37" s="19" t="str">
         <f>H36</f>
         <v>Software</v>
       </c>
-      <c r="I37" s="35"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="11" t="str">
         <f>J36</f>
         <v>Entità</v>
@@ -1712,29 +1712,29 @@
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
       <c r="P42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T42" s="29" t="s">
+      <c r="T42" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H43" s="34" t="s">
+      <c r="H43" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="34"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="10" t="s">
         <v>50</v>
       </c>
@@ -1744,10 +1744,10 @@
       <c r="L43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T43" s="29" t="s">
+      <c r="T43" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="U43" s="29"/>
+      <c r="U43" s="18"/>
       <c r="V43" s="14" t="s">
         <v>50</v>
       </c>
@@ -1759,11 +1759,11 @@
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H44" s="35" t="str">
+      <c r="H44" s="19" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I44" s="35"/>
+      <c r="I44" s="19"/>
       <c r="J44" s="11" t="str">
         <f>D5</f>
         <v>Entità</v>
@@ -1774,11 +1774,11 @@
       <c r="L44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T44" s="35" t="str">
+      <c r="T44" s="19" t="str">
         <f>H44</f>
         <v>Software</v>
       </c>
-      <c r="U44" s="35"/>
+      <c r="U44" s="19"/>
       <c r="V44" s="11" t="str">
         <f>J44</f>
         <v>Entità</v>
@@ -1793,11 +1793,11 @@
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="T45" s="35" t="str">
+      <c r="T45" s="19" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="U45" s="35"/>
+      <c r="U45" s="19"/>
       <c r="V45" s="11" t="str">
         <f>D14</f>
         <v>Relazione</v>
@@ -1907,10 +1907,10 @@
       </c>
     </row>
     <row r="53" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="36"/>
+      <c r="F53" s="20"/>
       <c r="G53" s="16">
         <f>Q40+Q47</f>
         <v>520</v>
@@ -1918,10 +1918,10 @@
       <c r="H53" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Q53" s="36" t="s">
+      <c r="Q53" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="R53" s="36"/>
+      <c r="R53" s="20"/>
       <c r="S53" s="16">
         <f>AC49+AC38</f>
         <v>380</v>
@@ -1931,19 +1931,19 @@
       </c>
     </row>
     <row r="54" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="36"/>
+      <c r="F54" s="20"/>
       <c r="G54" s="16">
         <f>4*F5</f>
         <v>1200</v>
       </c>
       <c r="H54" s="15"/>
-      <c r="Q54" s="36" t="s">
+      <c r="Q54" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="R54" s="36"/>
+      <c r="R54" s="20"/>
       <c r="S54" s="16">
         <v>0</v>
       </c>
@@ -1951,24 +1951,82 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="I10:J10"/>
@@ -1993,82 +2051,24 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\SoftwareHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3207085E-8CEB-417D-B82D-F14877CAC4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D589D968-481E-47EF-A9C0-45BE055FCCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
@@ -849,7 +849,7 @@
   <dimension ref="B2:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="33">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="G9" s="34"/>
       <c r="I9" s="22" t="s">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="33">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G13" s="34"/>
       <c r="I13" s="25" t="s">

--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\SoftwareHouse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\OneDrive\Desktop\SoftwareHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D589D968-481E-47EF-A9C0-45BE055FCCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{D589D968-481E-47EF-A9C0-45BE055FCCAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{43EB3517-0D8D-4F09-B6BA-98E44A262F48}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="73">
   <si>
     <t>Concetto</t>
   </si>
@@ -237,6 +235,21 @@
   </si>
   <si>
     <t>Memoria in byte=</t>
+  </si>
+  <si>
+    <t>Op.28</t>
+  </si>
+  <si>
+    <t>Op.29</t>
+  </si>
+  <si>
+    <t>Op.30</t>
+  </si>
+  <si>
+    <t>Op.31</t>
+  </si>
+  <si>
+    <t>Op.32</t>
   </si>
 </sst>
 </file>
@@ -463,6 +476,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,9 +506,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,12 +513,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,19 +859,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05CB62-BCAA-48B8-A379-27A9D8698B8D}">
-  <dimension ref="B2:AD54"/>
+  <dimension ref="B2:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
@@ -884,7 +897,7 @@
       </c>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
@@ -897,10 +910,10 @@
         <v>600</v>
       </c>
       <c r="G3" s="34"/>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="30" t="s">
         <v>44</v>
       </c>
@@ -912,7 +925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
@@ -925,14 +938,14 @@
         <v>100</v>
       </c>
       <c r="G4" s="34"/>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="24"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="19"/>
       <c r="M4" s="3">
         <v>50</v>
       </c>
@@ -940,7 +953,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
@@ -953,14 +966,14 @@
         <v>300</v>
       </c>
       <c r="G5" s="34"/>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="24"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="19"/>
       <c r="M5" s="3">
         <v>5</v>
       </c>
@@ -968,7 +981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
@@ -981,14 +994,14 @@
         <v>1200</v>
       </c>
       <c r="G6" s="34"/>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="24"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="19"/>
       <c r="M6" s="3">
         <v>10</v>
       </c>
@@ -996,7 +1009,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
@@ -1009,14 +1022,14 @@
         <v>100</v>
       </c>
       <c r="G7" s="34"/>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="24"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="19"/>
       <c r="M7" s="3">
         <v>1000</v>
       </c>
@@ -1024,7 +1037,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>9</v>
       </c>
@@ -1037,14 +1050,14 @@
         <v>900</v>
       </c>
       <c r="G8" s="34"/>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="24"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="19"/>
       <c r="M8" s="3">
         <v>10</v>
       </c>
@@ -1052,7 +1065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
         <v>16</v>
       </c>
@@ -1065,14 +1078,14 @@
         <v>600</v>
       </c>
       <c r="G9" s="34"/>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="24"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="19"/>
       <c r="M9" s="3">
         <v>20</v>
       </c>
@@ -1080,7 +1093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>11</v>
       </c>
@@ -1093,14 +1106,14 @@
         <v>900</v>
       </c>
       <c r="G10" s="34"/>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="24"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="19"/>
       <c r="M10" s="3">
         <v>100</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>10</v>
       </c>
@@ -1121,14 +1134,14 @@
         <v>350</v>
       </c>
       <c r="G11" s="34"/>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="24"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="19"/>
       <c r="M11" s="3">
         <v>100</v>
       </c>
@@ -1136,7 +1149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
@@ -1149,14 +1162,14 @@
         <v>250</v>
       </c>
       <c r="G12" s="34"/>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="24"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="19"/>
       <c r="M12" s="3">
         <v>20</v>
       </c>
@@ -1164,7 +1177,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>13</v>
       </c>
@@ -1177,14 +1190,14 @@
         <v>600</v>
       </c>
       <c r="G13" s="34"/>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="24"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="19"/>
       <c r="M13" s="5">
         <v>10</v>
       </c>
@@ -1192,7 +1205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
         <v>14</v>
       </c>
@@ -1205,14 +1218,14 @@
         <v>2400</v>
       </c>
       <c r="G14" s="34"/>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="24" t="s">
+      <c r="J14" s="28"/>
+      <c r="K14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="24"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="6">
         <v>5</v>
       </c>
@@ -1220,15 +1233,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="25" t="s">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="24"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="19"/>
       <c r="M15" s="3">
         <v>10</v>
       </c>
@@ -1236,25 +1249,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="24"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="19"/>
       <c r="M16" s="3">
         <v>10</v>
       </c>
@@ -1262,25 +1275,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="27"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="24"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="19"/>
       <c r="M17" s="3">
         <v>120</v>
       </c>
@@ -1288,18 +1301,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="24"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="19"/>
       <c r="M18" s="3">
         <v>20</v>
       </c>
@@ -1307,15 +1320,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="25" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="24"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="19"/>
       <c r="M19" s="3">
         <v>30</v>
       </c>
@@ -1323,15 +1336,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="25" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I20" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24" t="s">
+      <c r="J20" s="28"/>
+      <c r="K20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="3">
         <v>5</v>
       </c>
@@ -1339,15 +1352,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="25" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="24"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="19"/>
       <c r="M21" s="3">
         <v>10</v>
       </c>
@@ -1355,15 +1368,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="25" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="24" t="s">
+      <c r="J22" s="28"/>
+      <c r="K22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="24"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="3">
         <v>20</v>
       </c>
@@ -1371,15 +1384,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="25" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="24" t="s">
+      <c r="J23" s="28"/>
+      <c r="K23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="24"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="3">
         <v>10</v>
       </c>
@@ -1387,15 +1400,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="25" t="s">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="24"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="19"/>
       <c r="M24" s="3">
         <v>70</v>
       </c>
@@ -1403,15 +1416,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="25" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I25" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="24"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="19"/>
       <c r="M25" s="3">
         <v>20</v>
       </c>
@@ -1419,11 +1432,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I26" s="22" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I26" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="30" t="s">
         <v>44</v>
       </c>
@@ -1435,15 +1448,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I27" s="25" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I27" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="24"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="19"/>
       <c r="M27" s="3">
         <v>50</v>
       </c>
@@ -1451,15 +1464,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I28" s="25" t="s">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I28" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="24"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="19"/>
       <c r="M28" s="3">
         <v>15</v>
       </c>
@@ -1467,15 +1480,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="28" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="24"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="19"/>
       <c r="M29" s="3">
         <v>40</v>
       </c>
@@ -1483,474 +1496,554 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="3">
+        <v>15</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="3">
+        <v>10</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I32" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="3">
+        <v>50</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="I33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="3">
+        <v>5</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="I34" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="3">
+        <v>20</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H35" s="2"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B37" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="H33" s="18" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="H37" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="P33" s="9" t="s">
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="P37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T33" s="18" t="s">
+      <c r="T37" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H34" s="17" t="s">
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H38" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="10" t="s">
+      <c r="I38" s="20"/>
+      <c r="J38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K38" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T34" s="18" t="s">
+      <c r="T38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="U34" s="18"/>
-      <c r="V34" s="14" t="s">
+      <c r="U38" s="21"/>
+      <c r="V38" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="W34" s="14" t="s">
+      <c r="W38" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="X34" s="14" t="s">
+      <c r="X38" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H35" s="19" t="str">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H39" s="22" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="11" t="str">
+      <c r="I39" s="22"/>
+      <c r="J39" s="11" t="str">
         <f>D14</f>
         <v>Relazione</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K39" s="11">
         <v>1</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L39" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="T35" s="19" t="str">
-        <f>H35</f>
+      <c r="T39" s="22" t="str">
+        <f>H39</f>
         <v>Acquista</v>
       </c>
-      <c r="U35" s="19"/>
-      <c r="V35" s="11" t="str">
-        <f>J35</f>
+      <c r="U39" s="22"/>
+      <c r="V39" s="11" t="str">
+        <f>J39</f>
         <v>Relazione</v>
       </c>
-      <c r="W35" s="11">
-        <f>K35</f>
+      <c r="W39" s="11">
+        <f>K39</f>
         <v>1</v>
       </c>
-      <c r="X35" s="11" t="str">
-        <f>L35</f>
+      <c r="X39" s="11" t="str">
+        <f>L39</f>
         <v>S</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H36" s="19" t="str">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H40" s="22" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="11" t="str">
+      <c r="I40" s="22"/>
+      <c r="J40" s="11" t="str">
         <f>D5</f>
         <v>Entità</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K40" s="11">
         <v>1</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L40" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H37" s="19" t="str">
-        <f>H36</f>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H41" s="22" t="str">
+        <f>H40</f>
         <v>Software</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="11" t="str">
-        <f>J36</f>
+      <c r="I41" s="22"/>
+      <c r="J41" s="11" t="str">
+        <f>J40</f>
         <v>Entità</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K41" s="11">
         <v>1</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L41" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Q38" s="12" t="s">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Q42" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="R38" s="13" t="s">
+      <c r="R42" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="S38" s="13">
+      <c r="S42" s="13">
         <v>0</v>
       </c>
-      <c r="T38" s="13" t="s">
+      <c r="T42" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="U38" s="13" t="s">
+      <c r="U42" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V38" s="13">
-        <f>W35</f>
+      <c r="V42" s="13">
+        <f>W39</f>
         <v>1</v>
       </c>
-      <c r="W38" s="13" t="s">
+      <c r="W42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X38" s="13" t="s">
+      <c r="X42" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Y38" s="13" t="s">
+      <c r="Y42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Z38" s="13">
-        <f>N40</f>
+      <c r="Z42" s="13">
+        <f>N44</f>
         <v>100</v>
       </c>
-      <c r="AA38" s="13" t="str">
-        <f>O40</f>
+      <c r="AA42" s="13" t="str">
+        <f>O44</f>
         <v>mm</v>
       </c>
-      <c r="AB38" s="13" t="s">
+      <c r="AB42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC38" s="13">
-        <f>(S38+2*V38)*Z38</f>
+      <c r="AC42" s="13">
+        <f>(S42+2*V42)*Z42</f>
         <v>200</v>
       </c>
-      <c r="AD38" s="13" t="s">
+      <c r="AD42" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="E40" s="12" t="s">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="E44" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="13">
-        <f>K36</f>
+      <c r="G44" s="13">
+        <f>K40</f>
         <v>1</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H44" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I44" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J40" s="13">
-        <f>K37+K35</f>
+      <c r="J44" s="13">
+        <f>K41+K39</f>
         <v>2</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K44" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L44" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M40" s="13" t="s">
+      <c r="M44" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N44" s="13">
         <f>M11</f>
         <v>100</v>
       </c>
-      <c r="O40" s="13" t="str">
+      <c r="O44" s="13" t="str">
         <f>N11</f>
         <v>mm</v>
       </c>
-      <c r="P40" s="13" t="s">
+      <c r="P44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q40" s="13">
-        <f>(G40+2*J40)*N40</f>
+      <c r="Q44" s="13">
+        <f>(G44+2*J44)*N44</f>
         <v>500</v>
       </c>
-      <c r="R40" s="13" t="s">
+      <c r="R44" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H42" s="18" t="s">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H46" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="P42" s="9" t="s">
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="P46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T42" s="18" t="s">
+      <c r="T46" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H43" s="17" t="s">
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="10" t="s">
+      <c r="I47" s="20"/>
+      <c r="J47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K47" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L47" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T43" s="18" t="s">
+      <c r="T47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="U43" s="18"/>
-      <c r="V43" s="14" t="s">
+      <c r="U47" s="21"/>
+      <c r="V47" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="W43" s="14" t="s">
+      <c r="W47" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="X43" s="14" t="s">
+      <c r="X47" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="H44" s="19" t="str">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="H48" s="22" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="11" t="str">
+      <c r="I48" s="22"/>
+      <c r="J48" s="11" t="str">
         <f>D5</f>
         <v>Entità</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K48" s="11">
         <v>1</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L48" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T44" s="19" t="str">
-        <f>H44</f>
+      <c r="T48" s="22" t="str">
+        <f>H48</f>
         <v>Software</v>
       </c>
-      <c r="U44" s="19"/>
-      <c r="V44" s="11" t="str">
-        <f>J44</f>
+      <c r="U48" s="22"/>
+      <c r="V48" s="11" t="str">
+        <f>J48</f>
         <v>Entità</v>
       </c>
-      <c r="W44" s="11">
-        <f>K44</f>
+      <c r="W48" s="11">
+        <f>K48</f>
         <v>1</v>
       </c>
-      <c r="X44" s="11" t="str">
-        <f>L44</f>
+      <c r="X48" s="11" t="str">
+        <f>L48</f>
         <v>L</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="T45" s="19" t="str">
+    <row r="49" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="T49" s="22" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="U45" s="19"/>
-      <c r="V45" s="11" t="str">
+      <c r="U49" s="22"/>
+      <c r="V49" s="11" t="str">
         <f>D14</f>
         <v>Relazione</v>
       </c>
-      <c r="W45" s="11">
+      <c r="W49" s="11">
         <f>F14/F5</f>
         <v>8</v>
       </c>
-      <c r="X45" s="11" t="s">
+      <c r="X49" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="E47" s="12" t="s">
+    <row r="51" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E51" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F51" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="13">
-        <f>K44</f>
+      <c r="G51" s="13">
+        <f>K48</f>
         <v>1</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H51" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I51" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J51" s="13">
         <v>0</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="K51" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="L51" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M47" s="13" t="s">
+      <c r="M51" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N51" s="13">
         <f>M25</f>
         <v>20</v>
       </c>
-      <c r="O47" s="13" t="str">
+      <c r="O51" s="13" t="str">
         <f>N26</f>
         <v>mm</v>
       </c>
-      <c r="P47" s="13" t="s">
+      <c r="P51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q47" s="13">
-        <f>(G47+2*J47)*N47</f>
+      <c r="Q51" s="13">
+        <f>(G51+2*J51)*N51</f>
         <v>20</v>
       </c>
-      <c r="R47" s="13" t="s">
+      <c r="R51" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="Q49" s="12" t="s">
+    <row r="53" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="Q53" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="R49" s="13" t="s">
+      <c r="R53" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="S49" s="13">
-        <f>W44+W45</f>
+      <c r="S53" s="13">
+        <f>W48+W49</f>
         <v>9</v>
       </c>
-      <c r="T49" s="13" t="s">
+      <c r="T53" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="U49" s="13" t="s">
+      <c r="U53" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V49" s="13">
+      <c r="V53" s="13">
         <v>0</v>
       </c>
-      <c r="W49" s="13" t="s">
+      <c r="W53" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X49" s="13" t="s">
+      <c r="X53" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Y49" s="13" t="s">
+      <c r="Y53" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Z49" s="13">
-        <f>N47</f>
+      <c r="Z53" s="13">
+        <f>N51</f>
         <v>20</v>
       </c>
-      <c r="AA49" s="13" t="str">
-        <f>O47</f>
+      <c r="AA53" s="13" t="str">
+        <f>O51</f>
         <v>mm</v>
       </c>
-      <c r="AB49" s="13" t="s">
+      <c r="AB53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC49" s="13">
-        <f>(S49+2*V49)*Z49</f>
+      <c r="AC53" s="13">
+        <f>(S53+2*V53)*Z53</f>
         <v>180</v>
       </c>
-      <c r="AD49" s="13" t="s">
+      <c r="AD53" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E53" s="20" t="s">
+    <row r="57" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E57" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="16">
-        <f>Q40+Q47</f>
+      <c r="F57" s="23"/>
+      <c r="G57" s="16">
+        <f>Q44+Q51</f>
         <v>520</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H57" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Q53" s="20" t="s">
+      <c r="Q57" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R53" s="20"/>
-      <c r="S53" s="16">
-        <f>AC49+AC38</f>
+      <c r="R57" s="23"/>
+      <c r="S57" s="16">
+        <f>AC53+AC42</f>
         <v>380</v>
       </c>
-      <c r="T53" s="16" t="s">
+      <c r="T57" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E54" s="20" t="s">
+    <row r="58" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E58" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="16">
+      <c r="F58" s="23"/>
+      <c r="G58" s="16">
         <f>4*F5</f>
         <v>1200</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="Q54" s="20" t="s">
+      <c r="H58" s="15"/>
+      <c r="Q58" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="R54" s="20"/>
-      <c r="S54" s="16">
+      <c r="R58" s="23"/>
+      <c r="S58" s="16">
         <v>0</v>
       </c>
-      <c r="T54" s="15"/>
+      <c r="T58" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
+  <mergeCells count="128">
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="B11:C11"/>
@@ -2031,8 +2124,8 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="T46:X46"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="I29:J29"/>
@@ -2051,24 +2144,34 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TabellaVolumi.xlsx
+++ b/TabellaVolumi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\OneDrive\Desktop\SoftwareHouse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{D589D968-481E-47EF-A9C0-45BE055FCCAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{43EB3517-0D8D-4F09-B6BA-98E44A262F48}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5E5DE6-C761-442A-8C8F-9DD68F287077}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EAEA358-E330-4648-A1C0-815B1B1BA5A7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="72">
   <si>
     <t>Concetto</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>Op.31</t>
-  </si>
-  <si>
-    <t>Op.32</t>
   </si>
 </sst>
 </file>
@@ -476,64 +473,64 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -862,7 +859,7 @@
   <dimension ref="B2:AD58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,52 +869,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="28"/>
+      <c r="I2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
+      <c r="E3" s="23"/>
+      <c r="F3" s="20">
         <v>600</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="21"/>
       <c r="I3" s="25" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="26"/>
-      <c r="K3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="30"/>
+      <c r="K3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="27"/>
       <c r="M3" s="3">
         <v>50</v>
       </c>
@@ -926,22 +923,22 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
+      <c r="E4" s="23"/>
+      <c r="F4" s="20">
         <v>100</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="I4" s="27" t="s">
+      <c r="G4" s="21"/>
+      <c r="I4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="28"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="19" t="s">
         <v>44</v>
       </c>
@@ -954,18 +951,18 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="33">
+      <c r="E5" s="23"/>
+      <c r="F5" s="20">
         <v>300</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="21"/>
       <c r="I5" s="25" t="s">
         <v>21</v>
       </c>
@@ -982,22 +979,22 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="33">
+      <c r="E6" s="23"/>
+      <c r="F6" s="20">
         <v>1200</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="I6" s="27" t="s">
+      <c r="G6" s="21"/>
+      <c r="I6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="28"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="19" t="s">
         <v>44</v>
       </c>
@@ -1010,18 +1007,18 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="33">
+      <c r="E7" s="23"/>
+      <c r="F7" s="20">
         <v>100</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="21"/>
       <c r="I7" s="25" t="s">
         <v>23</v>
       </c>
@@ -1038,22 +1035,22 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="33">
+      <c r="E8" s="23"/>
+      <c r="F8" s="20">
         <v>900</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="I8" s="27" t="s">
+      <c r="G8" s="21"/>
+      <c r="I8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="28"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="19" t="s">
         <v>44</v>
       </c>
@@ -1066,18 +1063,18 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="33">
+      <c r="E9" s="23"/>
+      <c r="F9" s="20">
         <v>600</v>
       </c>
-      <c r="G9" s="34"/>
+      <c r="G9" s="21"/>
       <c r="I9" s="25" t="s">
         <v>25</v>
       </c>
@@ -1094,22 +1091,22 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="33">
+      <c r="E10" s="23"/>
+      <c r="F10" s="20">
         <v>900</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="I10" s="27" t="s">
+      <c r="G10" s="21"/>
+      <c r="I10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="28"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="19" t="s">
         <v>44</v>
       </c>
@@ -1122,18 +1119,18 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="33">
+      <c r="E11" s="23"/>
+      <c r="F11" s="20">
         <v>350</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="21"/>
       <c r="I11" s="25" t="s">
         <v>27</v>
       </c>
@@ -1150,22 +1147,22 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="33">
+      <c r="E12" s="23"/>
+      <c r="F12" s="20">
         <v>250</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="I12" s="27" t="s">
+      <c r="G12" s="21"/>
+      <c r="I12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="19" t="s">
         <v>44</v>
       </c>
@@ -1178,22 +1175,22 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="33">
+      <c r="E13" s="23"/>
+      <c r="F13" s="20">
         <v>600</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="I13" s="27" t="s">
+      <c r="G13" s="21"/>
+      <c r="I13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="28"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="19" t="s">
         <v>44</v>
       </c>
@@ -1206,22 +1203,22 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="33">
+      <c r="E14" s="23"/>
+      <c r="F14" s="20">
         <v>2400</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="I14" s="27" t="s">
+      <c r="G14" s="21"/>
+      <c r="I14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="28"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="19" t="s">
         <v>45</v>
       </c>
@@ -1234,10 +1231,10 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="28"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="19" t="s">
         <v>44</v>
       </c>
@@ -1250,20 +1247,20 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="28"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="19" t="s">
         <v>44</v>
       </c>
@@ -1276,20 +1273,20 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="28"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="19" t="s">
         <v>44</v>
       </c>
@@ -1305,10 +1302,10 @@
       <c r="G18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="28"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="19" t="s">
         <v>44</v>
       </c>
@@ -1321,10 +1318,10 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="28"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="19" t="s">
         <v>44</v>
       </c>
@@ -1337,10 +1334,10 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="28"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="19" t="s">
         <v>45</v>
       </c>
@@ -1353,10 +1350,10 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="19" t="s">
         <v>44</v>
       </c>
@@ -1369,10 +1366,10 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="28"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="19" t="s">
         <v>45</v>
       </c>
@@ -1385,10 +1382,10 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="28"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="19" t="s">
         <v>45</v>
       </c>
@@ -1401,10 +1398,10 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="28"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="19" t="s">
         <v>44</v>
       </c>
@@ -1417,10 +1414,10 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="28"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="19" t="s">
         <v>44</v>
       </c>
@@ -1437,10 +1434,10 @@
         <v>42</v>
       </c>
       <c r="J26" s="26"/>
-      <c r="K26" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="30"/>
+      <c r="K26" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="27"/>
       <c r="M26" s="3">
         <v>75</v>
       </c>
@@ -1449,10 +1446,10 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="28"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="19" t="s">
         <v>44</v>
       </c>
@@ -1465,10 +1462,10 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="28"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="19" t="s">
         <v>44</v>
       </c>
@@ -1481,10 +1478,10 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="19" t="s">
         <v>44</v>
       </c>
@@ -1497,10 +1494,10 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="18"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="19" t="s">
         <v>44</v>
       </c>
@@ -1513,10 +1510,10 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="18"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="19" t="s">
         <v>44</v>
       </c>
@@ -1529,50 +1526,34 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="18"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="19" t="s">
         <v>44</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="J33" s="18"/>
+      <c r="J33" s="33"/>
       <c r="K33" s="19" t="s">
         <v>44</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="I34" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="3">
-        <v>20</v>
-      </c>
-      <c r="N34" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1586,36 +1567,36 @@
       <c r="N35" s="1"/>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="H37" s="21" t="s">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="H37" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
       <c r="P37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T37" s="21" t="s">
+      <c r="T37" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="20"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="10" t="s">
         <v>50</v>
       </c>
@@ -1625,10 +1606,10 @@
       <c r="L38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T38" s="21" t="s">
+      <c r="T38" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="U38" s="21"/>
+      <c r="U38" s="29"/>
       <c r="V38" s="14" t="s">
         <v>50</v>
       </c>
@@ -1640,11 +1621,11 @@
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H39" s="22" t="str">
+      <c r="H39" s="34" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="I39" s="22"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="11" t="str">
         <f>D14</f>
         <v>Relazione</v>
@@ -1655,11 +1636,11 @@
       <c r="L39" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="T39" s="22" t="str">
+      <c r="T39" s="34" t="str">
         <f>H39</f>
         <v>Acquista</v>
       </c>
-      <c r="U39" s="22"/>
+      <c r="U39" s="34"/>
       <c r="V39" s="11" t="str">
         <f>J39</f>
         <v>Relazione</v>
@@ -1674,11 +1655,11 @@
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H40" s="22" t="str">
+      <c r="H40" s="34" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I40" s="22"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="11" t="str">
         <f>D5</f>
         <v>Entità</v>
@@ -1691,11 +1672,11 @@
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H41" s="22" t="str">
+      <c r="H41" s="34" t="str">
         <f>H40</f>
         <v>Software</v>
       </c>
-      <c r="I41" s="22"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="11" t="str">
         <f>J40</f>
         <v>Entità</v>
@@ -1805,29 +1786,29 @@
       </c>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H46" s="21" t="s">
+      <c r="H46" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
       <c r="P46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T46" s="21" t="s">
+      <c r="T46" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H47" s="20" t="s">
+      <c r="H47" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I47" s="20"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="10" t="s">
         <v>50</v>
       </c>
@@ -1837,10 +1818,10 @@
       <c r="L47" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T47" s="21" t="s">
+      <c r="T47" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="U47" s="21"/>
+      <c r="U47" s="29"/>
       <c r="V47" s="14" t="s">
         <v>50</v>
       </c>
@@ -1852,11 +1833,11 @@
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="H48" s="22" t="str">
+      <c r="H48" s="34" t="str">
         <f>B5</f>
         <v>Software</v>
       </c>
-      <c r="I48" s="22"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="11" t="str">
         <f>D5</f>
         <v>Entità</v>
@@ -1867,11 +1848,11 @@
       <c r="L48" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T48" s="22" t="str">
+      <c r="T48" s="34" t="str">
         <f>H48</f>
         <v>Software</v>
       </c>
-      <c r="U48" s="22"/>
+      <c r="U48" s="34"/>
       <c r="V48" s="11" t="str">
         <f>J48</f>
         <v>Entità</v>
@@ -1886,11 +1867,11 @@
       </c>
     </row>
     <row r="49" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="T49" s="22" t="str">
+      <c r="T49" s="34" t="str">
         <f>B14</f>
         <v>Acquista</v>
       </c>
-      <c r="U49" s="22"/>
+      <c r="U49" s="34"/>
       <c r="V49" s="11" t="str">
         <f>D14</f>
         <v>Relazione</v>
@@ -2000,10 +1981,10 @@
       </c>
     </row>
     <row r="57" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="35"/>
       <c r="G57" s="16">
         <f>Q44+Q51</f>
         <v>520</v>
@@ -2011,10 +1992,10 @@
       <c r="H57" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Q57" s="23" t="s">
+      <c r="Q57" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="R57" s="23"/>
+      <c r="R57" s="35"/>
       <c r="S57" s="16">
         <f>AC53+AC42</f>
         <v>380</v>
@@ -2024,78 +2005,76 @@
       </c>
     </row>
     <row r="58" spans="5:30" x14ac:dyDescent="0.3">
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="35"/>
       <c r="G58" s="16">
         <f>4*F5</f>
         <v>1200</v>
       </c>
       <c r="H58" s="15"/>
-      <c r="Q58" s="23" t="s">
+      <c r="Q58" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="R58" s="23"/>
+      <c r="R58" s="35"/>
       <c r="S58" s="16">
         <v>0</v>
       </c>
       <c r="T58" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+  <mergeCells count="126">
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="T46:X46"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="I8:J8"/>
@@ -2120,58 +2099,58 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="T46:X46"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="T37:X37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
